--- a/pre_pmagy_obj3_edu.xlsx
+++ b/pre_pmagy_obj3_edu.xlsx
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -510,7 +510,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -545,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1350,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -1385,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -1560,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J39">
         <v>2</v>
@@ -1770,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -1840,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -1980,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2190,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -2260,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J56">
         <v>2</v>
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2400,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -2540,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -2575,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -2645,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J66">
         <v>2</v>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -2785,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J69">
         <v>2</v>
@@ -2820,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -2855,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -2925,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -2960,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J75">
         <v>2</v>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -3100,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -3135,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -3205,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -3240,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J82">
         <v>2</v>
@@ -3275,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -3450,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -3555,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -3590,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -3625,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J93">
         <v>2</v>
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -3695,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J95">
         <v>2</v>
@@ -3730,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -3765,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -3800,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -3835,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -3905,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -3975,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -4010,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104">
         <v>2</v>
@@ -4045,7 +4045,7 @@
         <v>1</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J105">
         <v>2</v>
@@ -4080,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -4115,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J107">
         <v>2</v>
@@ -4150,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J108">
         <v>2</v>
@@ -4185,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J109">
         <v>2</v>
@@ -4220,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110">
         <v>2</v>
@@ -4255,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -4290,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -4395,7 +4395,7 @@
         <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -4430,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J116">
         <v>2</v>
@@ -4465,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J117">
         <v>2</v>
@@ -4535,7 +4535,7 @@
         <v>1</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -4570,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J120">
         <v>1</v>
@@ -4640,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J122">
         <v>2</v>
@@ -4675,7 +4675,7 @@
         <v>1</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J123">
         <v>2</v>
@@ -4710,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J124">
         <v>2</v>
@@ -4745,7 +4745,7 @@
         <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J125">
         <v>1</v>
@@ -4780,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J126">
         <v>1</v>
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127">
         <v>2</v>
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J128">
         <v>1</v>
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J129">
         <v>1</v>
@@ -4920,7 +4920,7 @@
         <v>1</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J130">
         <v>2</v>
@@ -4955,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J131">
         <v>2</v>
@@ -4990,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J132">
         <v>1</v>
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J133">
         <v>1</v>
@@ -5060,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -5095,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -5130,7 +5130,7 @@
         <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136">
         <v>2</v>
@@ -5165,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137">
         <v>1</v>
@@ -5200,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -5270,7 +5270,7 @@
         <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -5305,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -5375,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J143">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -5480,7 +5480,7 @@
         <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -5515,7 +5515,7 @@
         <v>1</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J147">
         <v>2</v>
@@ -5550,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J148">
         <v>1</v>
@@ -5585,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J149">
         <v>2</v>
@@ -5620,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J150">
         <v>1</v>
@@ -5655,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J151">
         <v>1</v>
@@ -5725,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J153">
         <v>1</v>
@@ -5760,7 +5760,7 @@
         <v>1</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J154">
         <v>1</v>
@@ -5830,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J156">
         <v>1</v>
@@ -5865,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J157">
         <v>1</v>
@@ -5900,7 +5900,7 @@
         <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J158">
         <v>1</v>
@@ -5935,7 +5935,7 @@
         <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J159">
         <v>1</v>
@@ -6005,7 +6005,7 @@
         <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J161">
         <v>2</v>
@@ -6040,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J162">
         <v>1</v>
@@ -6075,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J163">
         <v>2</v>
@@ -6110,7 +6110,7 @@
         <v>1</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J164">
         <v>2</v>
@@ -6145,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J165">
         <v>1</v>
@@ -6215,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J167">
         <v>2</v>
@@ -6250,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J168">
         <v>1</v>
@@ -6320,7 +6320,7 @@
         <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170">
         <v>1</v>
@@ -6355,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J171">
         <v>2</v>
@@ -6390,7 +6390,7 @@
         <v>1</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J172">
         <v>1</v>
@@ -6425,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J173">
         <v>2</v>
@@ -6460,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J174">
         <v>2</v>
@@ -6530,7 +6530,7 @@
         <v>1</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J176">
         <v>2</v>
@@ -6565,7 +6565,7 @@
         <v>1</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J177">
         <v>2</v>
@@ -6600,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J178">
         <v>2</v>
@@ -6635,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J179">
         <v>2</v>
@@ -6670,7 +6670,7 @@
         <v>1</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J180">
         <v>1</v>
@@ -6705,7 +6705,7 @@
         <v>1</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J181">
         <v>2</v>
@@ -6740,7 +6740,7 @@
         <v>1</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J182">
         <v>1</v>
@@ -6775,7 +6775,7 @@
         <v>1</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J183">
         <v>2</v>
@@ -6810,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J184">
         <v>2</v>
@@ -6845,7 +6845,7 @@
         <v>1</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J185">
         <v>1</v>
@@ -6880,7 +6880,7 @@
         <v>1</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J186">
         <v>1</v>
@@ -6915,7 +6915,7 @@
         <v>1</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J187">
         <v>2</v>
@@ -6950,7 +6950,7 @@
         <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J188">
         <v>1</v>
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J189">
         <v>1</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J190">
         <v>1</v>
@@ -7090,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192">
         <v>1</v>
@@ -7125,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J193">
         <v>1</v>
@@ -7160,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J194">
         <v>1</v>
@@ -7195,7 +7195,7 @@
         <v>1</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J195">
         <v>1</v>
@@ -7230,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J196">
         <v>1</v>
@@ -7265,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J197">
         <v>1</v>
@@ -7300,7 +7300,7 @@
         <v>1</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J198">
         <v>1</v>
@@ -7370,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J200">
         <v>1</v>
@@ -7440,7 +7440,7 @@
         <v>1</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J202">
         <v>2</v>
@@ -7545,7 +7545,7 @@
         <v>1</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J205">
         <v>1</v>
@@ -7580,7 +7580,7 @@
         <v>1</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J206">
         <v>2</v>
@@ -7615,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J207">
         <v>2</v>
@@ -7650,7 +7650,7 @@
         <v>1</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J208">
         <v>1</v>
@@ -7755,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J211">
         <v>2</v>
@@ -7790,7 +7790,7 @@
         <v>1</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J212">
         <v>1</v>
@@ -7825,7 +7825,7 @@
         <v>1</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J213">
         <v>1</v>
@@ -7860,7 +7860,7 @@
         <v>1</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J214">
         <v>2</v>
@@ -7895,7 +7895,7 @@
         <v>1</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J215">
         <v>1</v>
@@ -7930,7 +7930,7 @@
         <v>1</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J216">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         <v>1</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J217">
         <v>2</v>
@@ -8000,7 +8000,7 @@
         <v>1</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J218">
         <v>1</v>
@@ -8035,7 +8035,7 @@
         <v>1</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J219">
         <v>1</v>
@@ -8070,7 +8070,7 @@
         <v>1</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J220">
         <v>2</v>
@@ -8105,7 +8105,7 @@
         <v>1</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J221">
         <v>1</v>
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J223">
         <v>1</v>
@@ -8210,7 +8210,7 @@
         <v>1</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J224">
         <v>2</v>
@@ -8245,7 +8245,7 @@
         <v>1</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J225">
         <v>2</v>
@@ -8280,7 +8280,7 @@
         <v>1</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J226">
         <v>2</v>
@@ -8315,7 +8315,7 @@
         <v>1</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J227">
         <v>2</v>
@@ -8385,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J229">
         <v>2</v>
@@ -8420,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J230">
         <v>1</v>
@@ -8455,7 +8455,7 @@
         <v>1</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J231">
         <v>1</v>
@@ -8490,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J232">
         <v>1</v>
@@ -8525,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J233">
         <v>1</v>
@@ -8560,7 +8560,7 @@
         <v>1</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J234">
         <v>2</v>
@@ -8595,7 +8595,7 @@
         <v>1</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J235">
         <v>2</v>
@@ -8630,7 +8630,7 @@
         <v>1</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J236">
         <v>1</v>
@@ -8700,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J238">
         <v>2</v>
@@ -8770,7 +8770,7 @@
         <v>1</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J240">
         <v>1</v>
@@ -8805,7 +8805,7 @@
         <v>1</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J241">
         <v>1</v>
@@ -8840,7 +8840,7 @@
         <v>1</v>
       </c>
       <c r="I242">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J242">
         <v>1</v>
@@ -8875,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J243">
         <v>2</v>
@@ -8945,7 +8945,7 @@
         <v>1</v>
       </c>
       <c r="I245">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J245">
         <v>1</v>
@@ -8980,7 +8980,7 @@
         <v>1</v>
       </c>
       <c r="I246">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J246">
         <v>2</v>
@@ -9015,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J247">
         <v>2</v>
@@ -9050,7 +9050,7 @@
         <v>1</v>
       </c>
       <c r="I248">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J248">
         <v>1</v>
@@ -9120,7 +9120,7 @@
         <v>1</v>
       </c>
       <c r="I250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J250">
         <v>2</v>
@@ -9190,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J252">
         <v>1</v>
@@ -9225,7 +9225,7 @@
         <v>1</v>
       </c>
       <c r="I253">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J253">
         <v>1</v>
@@ -9295,7 +9295,7 @@
         <v>1</v>
       </c>
       <c r="I255">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J255">
         <v>1</v>
@@ -9330,7 +9330,7 @@
         <v>1</v>
       </c>
       <c r="I256">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J256">
         <v>1</v>
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="I257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J257">
         <v>2</v>
@@ -9400,7 +9400,7 @@
         <v>1</v>
       </c>
       <c r="I258">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J258">
         <v>2</v>
@@ -9435,7 +9435,7 @@
         <v>1</v>
       </c>
       <c r="I259">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J259">
         <v>2</v>
@@ -9470,7 +9470,7 @@
         <v>1</v>
       </c>
       <c r="I260">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J260">
         <v>1</v>
@@ -9505,7 +9505,7 @@
         <v>1</v>
       </c>
       <c r="I261">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J261">
         <v>1</v>
@@ -9540,7 +9540,7 @@
         <v>1</v>
       </c>
       <c r="I262">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J262">
         <v>2</v>
@@ -9575,7 +9575,7 @@
         <v>1</v>
       </c>
       <c r="I263">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J263">
         <v>1</v>
@@ -9610,7 +9610,7 @@
         <v>1</v>
       </c>
       <c r="I264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J264">
         <v>1</v>
@@ -9645,7 +9645,7 @@
         <v>1</v>
       </c>
       <c r="I265">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J265">
         <v>1</v>
@@ -9715,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="I267">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J267">
         <v>2</v>
@@ -9750,7 +9750,7 @@
         <v>1</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J268">
         <v>2</v>
@@ -9785,7 +9785,7 @@
         <v>1</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J269">
         <v>1</v>
@@ -9820,7 +9820,7 @@
         <v>1</v>
       </c>
       <c r="I270">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J270">
         <v>1</v>
@@ -9855,7 +9855,7 @@
         <v>1</v>
       </c>
       <c r="I271">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J271">
         <v>1</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="I272">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J272">
         <v>1</v>
@@ -9925,7 +9925,7 @@
         <v>1</v>
       </c>
       <c r="I273">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J273">
         <v>2</v>
@@ -9995,7 +9995,7 @@
         <v>1</v>
       </c>
       <c r="I275">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J275">
         <v>1</v>
@@ -10065,7 +10065,7 @@
         <v>1</v>
       </c>
       <c r="I277">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J277">
         <v>1</v>
@@ -10100,7 +10100,7 @@
         <v>1</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J278">
         <v>2</v>
@@ -10170,7 +10170,7 @@
         <v>1</v>
       </c>
       <c r="I280">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J280">
         <v>2</v>
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="I281">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J281">
         <v>2</v>
@@ -10240,7 +10240,7 @@
         <v>1</v>
       </c>
       <c r="I282">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J282">
         <v>2</v>
@@ -10275,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="I283">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J283">
         <v>2</v>
@@ -10380,7 +10380,7 @@
         <v>1</v>
       </c>
       <c r="I286">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J286">
         <v>2</v>
@@ -10415,7 +10415,7 @@
         <v>1</v>
       </c>
       <c r="I287">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J287">
         <v>1</v>
@@ -10450,7 +10450,7 @@
         <v>1</v>
       </c>
       <c r="I288">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J288">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         <v>1</v>
       </c>
       <c r="I289">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J289">
         <v>2</v>
@@ -10520,7 +10520,7 @@
         <v>1</v>
       </c>
       <c r="I290">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J290">
         <v>1</v>
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="I291">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J291">
         <v>2</v>
@@ -10660,7 +10660,7 @@
         <v>1</v>
       </c>
       <c r="I294">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J294">
         <v>2</v>
@@ -10695,7 +10695,7 @@
         <v>1</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J295">
         <v>2</v>
@@ -10765,7 +10765,7 @@
         <v>1</v>
       </c>
       <c r="I297">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J297">
         <v>2</v>
@@ -10800,7 +10800,7 @@
         <v>1</v>
       </c>
       <c r="I298">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J298">
         <v>2</v>
@@ -10835,7 +10835,7 @@
         <v>1</v>
       </c>
       <c r="I299">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J299">
         <v>1</v>
@@ -10870,7 +10870,7 @@
         <v>1</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J300">
         <v>2</v>
@@ -11010,7 +11010,7 @@
         <v>1</v>
       </c>
       <c r="I304">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J304">
         <v>2</v>
@@ -11045,7 +11045,7 @@
         <v>1</v>
       </c>
       <c r="I305">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J305">
         <v>2</v>
@@ -11080,7 +11080,7 @@
         <v>1</v>
       </c>
       <c r="I306">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J306">
         <v>1</v>
@@ -11115,7 +11115,7 @@
         <v>1</v>
       </c>
       <c r="I307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J307">
         <v>2</v>
@@ -11150,7 +11150,7 @@
         <v>1</v>
       </c>
       <c r="I308">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J308">
         <v>1</v>
@@ -11185,7 +11185,7 @@
         <v>1</v>
       </c>
       <c r="I309">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J309">
         <v>1</v>
@@ -11220,7 +11220,7 @@
         <v>1</v>
       </c>
       <c r="I310">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J310">
         <v>1</v>
@@ -11255,7 +11255,7 @@
         <v>1</v>
       </c>
       <c r="I311">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J311">
         <v>2</v>
@@ -11325,7 +11325,7 @@
         <v>1</v>
       </c>
       <c r="I313">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J313">
         <v>2</v>
@@ -11360,7 +11360,7 @@
         <v>1</v>
       </c>
       <c r="I314">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J314">
         <v>1</v>
@@ -11395,7 +11395,7 @@
         <v>2</v>
       </c>
       <c r="I315">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J315">
         <v>1</v>
@@ -11500,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="I318">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J318">
         <v>1</v>
@@ -11535,7 +11535,7 @@
         <v>1</v>
       </c>
       <c r="I319">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J319">
         <v>1</v>
@@ -11570,7 +11570,7 @@
         <v>1</v>
       </c>
       <c r="I320">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J320">
         <v>2</v>
@@ -11605,7 +11605,7 @@
         <v>1</v>
       </c>
       <c r="I321">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J321">
         <v>1</v>
@@ -11640,7 +11640,7 @@
         <v>1</v>
       </c>
       <c r="I322">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J322">
         <v>1</v>
@@ -11710,7 +11710,7 @@
         <v>1</v>
       </c>
       <c r="I324">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J324">
         <v>1</v>
@@ -11745,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="I325">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J325">
         <v>1</v>
@@ -11780,7 +11780,7 @@
         <v>1</v>
       </c>
       <c r="I326">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J326">
         <v>1</v>
@@ -11850,7 +11850,7 @@
         <v>1</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J328">
         <v>1</v>
@@ -11885,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="I329">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J329">
         <v>2</v>
@@ -11920,7 +11920,7 @@
         <v>1</v>
       </c>
       <c r="I330">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J330">
         <v>2</v>
@@ -11955,7 +11955,7 @@
         <v>1</v>
       </c>
       <c r="I331">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J331">
         <v>1</v>
@@ -11990,7 +11990,7 @@
         <v>1</v>
       </c>
       <c r="I332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J332">
         <v>2</v>
@@ -12025,7 +12025,7 @@
         <v>1</v>
       </c>
       <c r="I333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J333">
         <v>2</v>
@@ -12060,7 +12060,7 @@
         <v>1</v>
       </c>
       <c r="I334">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J334">
         <v>2</v>
@@ -12095,7 +12095,7 @@
         <v>1</v>
       </c>
       <c r="I335">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J335">
         <v>2</v>
@@ -12130,7 +12130,7 @@
         <v>1</v>
       </c>
       <c r="I336">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J336">
         <v>2</v>
@@ -12270,7 +12270,7 @@
         <v>1</v>
       </c>
       <c r="I340">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J340">
         <v>1</v>
@@ -12305,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="I341">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J341">
         <v>1</v>
@@ -12410,7 +12410,7 @@
         <v>1</v>
       </c>
       <c r="I344">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J344">
         <v>2</v>
@@ -12445,7 +12445,7 @@
         <v>1</v>
       </c>
       <c r="I345">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J345">
         <v>1</v>
@@ -12480,7 +12480,7 @@
         <v>1</v>
       </c>
       <c r="I346">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J346">
         <v>1</v>
@@ -12515,7 +12515,7 @@
         <v>1</v>
       </c>
       <c r="I347">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J347">
         <v>1</v>
@@ -12585,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="I349">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J349">
         <v>1</v>
@@ -12620,7 +12620,7 @@
         <v>1</v>
       </c>
       <c r="I350">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J350">
         <v>2</v>
@@ -12690,7 +12690,7 @@
         <v>1</v>
       </c>
       <c r="I352">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J352">
         <v>1</v>
@@ -12725,7 +12725,7 @@
         <v>1</v>
       </c>
       <c r="I353">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J353">
         <v>2</v>
@@ -12760,7 +12760,7 @@
         <v>1</v>
       </c>
       <c r="I354">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J354">
         <v>1</v>
@@ -12795,7 +12795,7 @@
         <v>1</v>
       </c>
       <c r="I355">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J355">
         <v>2</v>
@@ -12830,7 +12830,7 @@
         <v>1</v>
       </c>
       <c r="I356">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J356">
         <v>2</v>
@@ -12865,7 +12865,7 @@
         <v>1</v>
       </c>
       <c r="I357">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J357">
         <v>2</v>
@@ -12900,7 +12900,7 @@
         <v>1</v>
       </c>
       <c r="I358">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J358">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         <v>1</v>
       </c>
       <c r="I361">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J361">
         <v>2</v>
@@ -13040,7 +13040,7 @@
         <v>1</v>
       </c>
       <c r="I362">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J362">
         <v>1</v>
@@ -13145,7 +13145,7 @@
         <v>1</v>
       </c>
       <c r="I365">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J365">
         <v>2</v>
@@ -13180,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="I366">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J366">
         <v>2</v>
@@ -13215,7 +13215,7 @@
         <v>1</v>
       </c>
       <c r="I367">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J367">
         <v>2</v>
@@ -13250,7 +13250,7 @@
         <v>1</v>
       </c>
       <c r="I368">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J368">
         <v>2</v>
@@ -13285,7 +13285,7 @@
         <v>1</v>
       </c>
       <c r="I369">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J369">
         <v>2</v>
@@ -13320,7 +13320,7 @@
         <v>1</v>
       </c>
       <c r="I370">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J370">
         <v>1</v>
@@ -13390,7 +13390,7 @@
         <v>1</v>
       </c>
       <c r="I372">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J372">
         <v>1</v>
@@ -13425,7 +13425,7 @@
         <v>1</v>
       </c>
       <c r="I373">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J373">
         <v>1</v>
@@ -13495,7 +13495,7 @@
         <v>1</v>
       </c>
       <c r="I375">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J375">
         <v>1</v>
@@ -13530,7 +13530,7 @@
         <v>1</v>
       </c>
       <c r="I376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J376">
         <v>1</v>
@@ -13565,7 +13565,7 @@
         <v>1</v>
       </c>
       <c r="I377">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J377">
         <v>1</v>
@@ -13600,7 +13600,7 @@
         <v>1</v>
       </c>
       <c r="I378">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J378">
         <v>1</v>
@@ -13670,7 +13670,7 @@
         <v>1</v>
       </c>
       <c r="I380">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J380">
         <v>1</v>
@@ -13705,7 +13705,7 @@
         <v>1</v>
       </c>
       <c r="I381">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J381">
         <v>1</v>
@@ -13740,7 +13740,7 @@
         <v>1</v>
       </c>
       <c r="I382">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J382">
         <v>1</v>
@@ -13775,7 +13775,7 @@
         <v>1</v>
       </c>
       <c r="I383">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J383">
         <v>1</v>
@@ -13810,7 +13810,7 @@
         <v>1</v>
       </c>
       <c r="I384">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J384">
         <v>1</v>
@@ -13845,7 +13845,7 @@
         <v>1</v>
       </c>
       <c r="I385">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J385">
         <v>1</v>
@@ -13950,7 +13950,7 @@
         <v>1</v>
       </c>
       <c r="I388">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J388">
         <v>1</v>
@@ -13985,7 +13985,7 @@
         <v>1</v>
       </c>
       <c r="I389">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J389">
         <v>2</v>
@@ -14055,7 +14055,7 @@
         <v>1</v>
       </c>
       <c r="I391">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J391">
         <v>2</v>
@@ -14090,7 +14090,7 @@
         <v>1</v>
       </c>
       <c r="I392">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J392">
         <v>1</v>
@@ -14125,7 +14125,7 @@
         <v>1</v>
       </c>
       <c r="I393">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J393">
         <v>1</v>
@@ -14195,7 +14195,7 @@
         <v>1</v>
       </c>
       <c r="I395">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J395">
         <v>2</v>
@@ -14230,7 +14230,7 @@
         <v>1</v>
       </c>
       <c r="I396">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J396">
         <v>2</v>
@@ -14265,7 +14265,7 @@
         <v>1</v>
       </c>
       <c r="I397">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J397">
         <v>1</v>
@@ -14300,7 +14300,7 @@
         <v>1</v>
       </c>
       <c r="I398">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J398">
         <v>2</v>
@@ -14335,7 +14335,7 @@
         <v>1</v>
       </c>
       <c r="I399">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J399">
         <v>1</v>
@@ -14370,7 +14370,7 @@
         <v>1</v>
       </c>
       <c r="I400">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J400">
         <v>1</v>
@@ -14405,7 +14405,7 @@
         <v>1</v>
       </c>
       <c r="I401">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J401">
         <v>2</v>
@@ -14475,7 +14475,7 @@
         <v>1</v>
       </c>
       <c r="I403">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J403">
         <v>2</v>
@@ -14545,7 +14545,7 @@
         <v>1</v>
       </c>
       <c r="I405">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J405">
         <v>2</v>
@@ -14580,7 +14580,7 @@
         <v>1</v>
       </c>
       <c r="I406">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J406">
         <v>1</v>
@@ -14615,7 +14615,7 @@
         <v>1</v>
       </c>
       <c r="I407">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J407">
         <v>1</v>
@@ -14650,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="I408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J408">
         <v>2</v>
@@ -14685,7 +14685,7 @@
         <v>1</v>
       </c>
       <c r="I409">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J409">
         <v>2</v>
@@ -14720,7 +14720,7 @@
         <v>1</v>
       </c>
       <c r="I410">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J410">
         <v>2</v>
@@ -14755,7 +14755,7 @@
         <v>1</v>
       </c>
       <c r="I411">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J411">
         <v>1</v>
@@ -14825,7 +14825,7 @@
         <v>1</v>
       </c>
       <c r="I413">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J413">
         <v>2</v>
@@ -14860,7 +14860,7 @@
         <v>1</v>
       </c>
       <c r="I414">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J414">
         <v>2</v>
@@ -14895,7 +14895,7 @@
         <v>1</v>
       </c>
       <c r="I415">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J415">
         <v>2</v>
@@ -14930,7 +14930,7 @@
         <v>1</v>
       </c>
       <c r="I416">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J416">
         <v>1</v>
@@ -14965,7 +14965,7 @@
         <v>2</v>
       </c>
       <c r="I417">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J417">
         <v>1</v>
@@ -15000,7 +15000,7 @@
         <v>1</v>
       </c>
       <c r="I418">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J418">
         <v>2</v>
@@ -15035,7 +15035,7 @@
         <v>1</v>
       </c>
       <c r="I419">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J419">
         <v>2</v>
@@ -15070,7 +15070,7 @@
         <v>1</v>
       </c>
       <c r="I420">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J420">
         <v>2</v>
@@ -15105,7 +15105,7 @@
         <v>1</v>
       </c>
       <c r="I421">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J421">
         <v>2</v>
@@ -15140,7 +15140,7 @@
         <v>1</v>
       </c>
       <c r="I422">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J422">
         <v>2</v>
@@ -15175,7 +15175,7 @@
         <v>1</v>
       </c>
       <c r="I423">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J423">
         <v>2</v>
@@ -15210,7 +15210,7 @@
         <v>1</v>
       </c>
       <c r="I424">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J424">
         <v>1</v>
@@ -15245,7 +15245,7 @@
         <v>1</v>
       </c>
       <c r="I425">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J425">
         <v>2</v>
@@ -15280,7 +15280,7 @@
         <v>1</v>
       </c>
       <c r="I426">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J426">
         <v>1</v>
@@ -15315,7 +15315,7 @@
         <v>1</v>
       </c>
       <c r="I427">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J427">
         <v>1</v>
@@ -15350,7 +15350,7 @@
         <v>1</v>
       </c>
       <c r="I428">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J428">
         <v>2</v>
@@ -15385,7 +15385,7 @@
         <v>1</v>
       </c>
       <c r="I429">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J429">
         <v>2</v>
@@ -15420,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="I430">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J430">
         <v>2</v>
@@ -15455,7 +15455,7 @@
         <v>1</v>
       </c>
       <c r="I431">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J431">
         <v>2</v>
@@ -15490,7 +15490,7 @@
         <v>1</v>
       </c>
       <c r="I432">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J432">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         <v>1</v>
       </c>
       <c r="I433">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J433">
         <v>1</v>
@@ -15560,7 +15560,7 @@
         <v>1</v>
       </c>
       <c r="I434">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J434">
         <v>1</v>
@@ -15595,7 +15595,7 @@
         <v>1</v>
       </c>
       <c r="I435">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J435">
         <v>1</v>
@@ -15665,7 +15665,7 @@
         <v>1</v>
       </c>
       <c r="I437">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J437">
         <v>1</v>
@@ -15700,7 +15700,7 @@
         <v>1</v>
       </c>
       <c r="I438">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J438">
         <v>1</v>
@@ -15735,7 +15735,7 @@
         <v>1</v>
       </c>
       <c r="I439">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J439">
         <v>2</v>
@@ -15770,7 +15770,7 @@
         <v>1</v>
       </c>
       <c r="I440">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J440">
         <v>2</v>
@@ -15805,7 +15805,7 @@
         <v>1</v>
       </c>
       <c r="I441">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J441">
         <v>2</v>
@@ -15840,7 +15840,7 @@
         <v>1</v>
       </c>
       <c r="I442">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J442">
         <v>2</v>
@@ -15875,7 +15875,7 @@
         <v>1</v>
       </c>
       <c r="I443">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J443">
         <v>2</v>
@@ -15910,7 +15910,7 @@
         <v>1</v>
       </c>
       <c r="I444">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J444">
         <v>1</v>
@@ -15945,7 +15945,7 @@
         <v>1</v>
       </c>
       <c r="I445">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J445">
         <v>1</v>
@@ -15980,7 +15980,7 @@
         <v>1</v>
       </c>
       <c r="I446">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J446">
         <v>2</v>
@@ -16015,7 +16015,7 @@
         <v>1</v>
       </c>
       <c r="I447">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J447">
         <v>1</v>
@@ -16050,7 +16050,7 @@
         <v>1</v>
       </c>
       <c r="I448">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J448">
         <v>1</v>
@@ -16120,7 +16120,7 @@
         <v>1</v>
       </c>
       <c r="I450">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J450">
         <v>2</v>
@@ -16155,7 +16155,7 @@
         <v>1</v>
       </c>
       <c r="I451">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J451">
         <v>1</v>
@@ -16190,7 +16190,7 @@
         <v>1</v>
       </c>
       <c r="I452">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J452">
         <v>2</v>
@@ -16225,7 +16225,7 @@
         <v>1</v>
       </c>
       <c r="I453">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J453">
         <v>2</v>
@@ -16260,7 +16260,7 @@
         <v>1</v>
       </c>
       <c r="I454">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J454">
         <v>1</v>
@@ -16295,7 +16295,7 @@
         <v>1</v>
       </c>
       <c r="I455">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J455">
         <v>2</v>
@@ -16330,7 +16330,7 @@
         <v>1</v>
       </c>
       <c r="I456">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J456">
         <v>2</v>
@@ -16365,7 +16365,7 @@
         <v>1</v>
       </c>
       <c r="I457">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J457">
         <v>2</v>
@@ -16400,7 +16400,7 @@
         <v>1</v>
       </c>
       <c r="I458">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J458">
         <v>2</v>
@@ -16435,7 +16435,7 @@
         <v>1</v>
       </c>
       <c r="I459">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J459">
         <v>2</v>
@@ -16470,7 +16470,7 @@
         <v>1</v>
       </c>
       <c r="I460">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J460">
         <v>1</v>
@@ -16505,7 +16505,7 @@
         <v>1</v>
       </c>
       <c r="I461">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J461">
         <v>1</v>
@@ -16540,7 +16540,7 @@
         <v>1</v>
       </c>
       <c r="I462">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J462">
         <v>1</v>
@@ -16575,7 +16575,7 @@
         <v>1</v>
       </c>
       <c r="I463">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J463">
         <v>1</v>
@@ -16610,7 +16610,7 @@
         <v>1</v>
       </c>
       <c r="I464">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J464">
         <v>1</v>
@@ -16680,7 +16680,7 @@
         <v>1</v>
       </c>
       <c r="I466">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J466">
         <v>2</v>
@@ -16715,7 +16715,7 @@
         <v>1</v>
       </c>
       <c r="I467">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J467">
         <v>2</v>
@@ -16750,7 +16750,7 @@
         <v>1</v>
       </c>
       <c r="I468">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J468">
         <v>1</v>
@@ -16785,7 +16785,7 @@
         <v>1</v>
       </c>
       <c r="I469">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J469">
         <v>2</v>
@@ -16820,7 +16820,7 @@
         <v>1</v>
       </c>
       <c r="I470">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J470">
         <v>2</v>
@@ -16855,7 +16855,7 @@
         <v>1</v>
       </c>
       <c r="I471">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J471">
         <v>2</v>
@@ -16890,7 +16890,7 @@
         <v>1</v>
       </c>
       <c r="I472">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J472">
         <v>2</v>
@@ -16925,7 +16925,7 @@
         <v>1</v>
       </c>
       <c r="I473">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J473">
         <v>2</v>
@@ -16960,7 +16960,7 @@
         <v>1</v>
       </c>
       <c r="I474">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J474">
         <v>2</v>
@@ -16995,7 +16995,7 @@
         <v>1</v>
       </c>
       <c r="I475">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J475">
         <v>1</v>
@@ -17030,7 +17030,7 @@
         <v>1</v>
       </c>
       <c r="I476">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J476">
         <v>2</v>
@@ -17065,7 +17065,7 @@
         <v>1</v>
       </c>
       <c r="I477">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J477">
         <v>1</v>
@@ -17100,7 +17100,7 @@
         <v>1</v>
       </c>
       <c r="I478">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J478">
         <v>1</v>
@@ -17170,7 +17170,7 @@
         <v>1</v>
       </c>
       <c r="I480">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J480">
         <v>1</v>
@@ -17240,7 +17240,7 @@
         <v>1</v>
       </c>
       <c r="I482">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J482">
         <v>2</v>
@@ -17275,7 +17275,7 @@
         <v>1</v>
       </c>
       <c r="I483">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J483">
         <v>1</v>
@@ -17310,7 +17310,7 @@
         <v>1</v>
       </c>
       <c r="I484">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J484">
         <v>1</v>
@@ -17345,7 +17345,7 @@
         <v>1</v>
       </c>
       <c r="I485">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J485">
         <v>2</v>
@@ -17380,7 +17380,7 @@
         <v>1</v>
       </c>
       <c r="I486">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J486">
         <v>1</v>
@@ -17415,7 +17415,7 @@
         <v>1</v>
       </c>
       <c r="I487">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J487">
         <v>1</v>

--- a/pre_pmagy_obj3_edu.xlsx
+++ b/pre_pmagy_obj3_edu.xlsx
@@ -437,13 +437,13 @@
         <v>4</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -472,13 +472,13 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -507,13 +507,13 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -548,7 +548,7 @@
         <v>2</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -615,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -647,13 +647,13 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>4</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -682,13 +682,13 @@
         <v>2</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -755,10 +755,10 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -787,10 +787,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -822,13 +822,13 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>5</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -857,7 +857,7 @@
         <v>2</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <v>5</v>
@@ -892,10 +892,10 @@
         <v>4</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -927,13 +927,13 @@
         <v>2</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -962,13 +962,13 @@
         <v>2</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <v>5</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -997,10 +997,10 @@
         <v>4</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1032,13 +1032,13 @@
         <v>4</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1070,10 +1070,10 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1102,13 +1102,13 @@
         <v>2</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I21">
         <v>2</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1137,10 +1137,10 @@
         <v>2</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1172,13 +1172,13 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1207,13 +1207,13 @@
         <v>2</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I24">
         <v>5</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1242,13 +1242,13 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1277,13 +1277,13 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -1312,13 +1312,13 @@
         <v>2</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -1347,13 +1347,13 @@
         <v>2</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -1382,13 +1382,13 @@
         <v>2</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -1417,10 +1417,10 @@
         <v>2</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1452,13 +1452,13 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -1487,13 +1487,13 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -1522,13 +1522,13 @@
         <v>2</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -1560,10 +1560,10 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -1592,13 +1592,13 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>5</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -1627,13 +1627,13 @@
         <v>2</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -1662,10 +1662,10 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -1697,13 +1697,13 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -1732,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I39">
         <v>5</v>
@@ -1767,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>4</v>
@@ -1802,10 +1802,10 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -1837,10 +1837,10 @@
         <v>2</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -1872,7 +1872,7 @@
         <v>2</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I43">
         <v>4</v>
@@ -1907,13 +1907,13 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -1942,13 +1942,13 @@
         <v>2</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -1977,13 +1977,13 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>4</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -2012,13 +2012,13 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -2050,10 +2050,10 @@
         <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -2082,13 +2082,13 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -2117,13 +2117,13 @@
         <v>2</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -2152,13 +2152,13 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -2187,13 +2187,13 @@
         <v>2</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -2222,13 +2222,13 @@
         <v>2</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I53">
         <v>5</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -2257,10 +2257,10 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -2292,13 +2292,13 @@
         <v>3</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -2327,7 +2327,7 @@
         <v>2</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I56">
         <v>5</v>
@@ -2362,13 +2362,13 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -2397,13 +2397,13 @@
         <v>2</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -2432,13 +2432,13 @@
         <v>2</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -2467,13 +2467,13 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I60">
         <v>4</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -2502,13 +2502,13 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -2537,13 +2537,13 @@
         <v>2</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -2572,13 +2572,13 @@
         <v>4</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63">
         <v>4</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -2607,10 +2607,10 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -2642,7 +2642,7 @@
         <v>3</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I65">
         <v>4</v>
@@ -2677,13 +2677,13 @@
         <v>2</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I66">
         <v>5</v>
       </c>
       <c r="J66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -2712,13 +2712,13 @@
         <v>2</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -2747,13 +2747,13 @@
         <v>2</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J68">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -2782,13 +2782,13 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -2820,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="I70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -2852,13 +2852,13 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I71">
         <v>4</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -2887,13 +2887,13 @@
         <v>2</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -2922,13 +2922,13 @@
         <v>2</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -2957,13 +2957,13 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>4</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -2992,13 +2992,13 @@
         <v>2</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -3027,13 +3027,13 @@
         <v>2</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -3062,13 +3062,13 @@
         <v>2</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -3097,10 +3097,10 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -3132,13 +3132,13 @@
         <v>2</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79">
         <v>4</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -3167,13 +3167,13 @@
         <v>2</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -3202,13 +3202,13 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -3237,7 +3237,7 @@
         <v>4</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I82">
         <v>4</v>
@@ -3275,10 +3275,10 @@
         <v>1</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -3307,10 +3307,10 @@
         <v>2</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J84">
         <v>2</v>
@@ -3342,13 +3342,13 @@
         <v>2</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -3377,13 +3377,13 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -3412,13 +3412,13 @@
         <v>2</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -3447,13 +3447,13 @@
         <v>2</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I88">
         <v>4</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -3482,10 +3482,10 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -3517,13 +3517,13 @@
         <v>4</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -3552,10 +3552,10 @@
         <v>2</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -3587,7 +3587,7 @@
         <v>2</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92">
         <v>4</v>
@@ -3622,13 +3622,13 @@
         <v>2</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I93">
         <v>5</v>
       </c>
       <c r="J93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -3657,13 +3657,13 @@
         <v>2</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -3692,7 +3692,7 @@
         <v>4</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I95">
         <v>5</v>
@@ -3727,13 +3727,13 @@
         <v>2</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -3762,10 +3762,10 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -3800,10 +3800,10 @@
         <v>1</v>
       </c>
       <c r="I98">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -3832,13 +3832,13 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K99">
         <v>2</v>
@@ -3867,13 +3867,13 @@
         <v>2</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -3902,13 +3902,13 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -3937,13 +3937,13 @@
         <v>3</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K102">
         <v>1</v>
@@ -3972,13 +3972,13 @@
         <v>2</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I103">
         <v>4</v>
       </c>
       <c r="J103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K103">
         <v>1</v>
@@ -4007,13 +4007,13 @@
         <v>2</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J104">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K104">
         <v>1</v>
@@ -4042,13 +4042,13 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K105">
         <v>1</v>
@@ -4083,7 +4083,7 @@
         <v>5</v>
       </c>
       <c r="J106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K106">
         <v>1</v>
@@ -4112,10 +4112,10 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I107">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J107">
         <v>2</v>
@@ -4147,13 +4147,13 @@
         <v>2</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J108">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K108">
         <v>1</v>
@@ -4182,13 +4182,13 @@
         <v>2</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I109">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J109">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K109">
         <v>1</v>
@@ -4217,10 +4217,10 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J110">
         <v>2</v>
@@ -4252,13 +4252,13 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I111">
         <v>5</v>
       </c>
       <c r="J111">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K111">
         <v>2</v>
@@ -4287,13 +4287,13 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -4322,13 +4322,13 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K113">
         <v>2</v>
@@ -4357,13 +4357,13 @@
         <v>2</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -4392,13 +4392,13 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K115">
         <v>2</v>
@@ -4427,13 +4427,13 @@
         <v>2</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K116">
         <v>2</v>
@@ -4462,13 +4462,13 @@
         <v>2</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I117">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J117">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -4497,13 +4497,13 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K118">
         <v>2</v>
@@ -4532,13 +4532,13 @@
         <v>2</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K119">
         <v>1</v>
@@ -4567,13 +4567,13 @@
         <v>2</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I120">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K120">
         <v>2</v>
@@ -4602,13 +4602,13 @@
         <v>2</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K121">
         <v>2</v>
@@ -4643,7 +4643,7 @@
         <v>4</v>
       </c>
       <c r="J122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K122">
         <v>1</v>
@@ -4672,13 +4672,13 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I123">
         <v>4</v>
       </c>
       <c r="J123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K123">
         <v>1</v>
@@ -4707,13 +4707,13 @@
         <v>2</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I124">
         <v>5</v>
       </c>
       <c r="J124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K124">
         <v>1</v>
@@ -4742,10 +4742,10 @@
         <v>2</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J125">
         <v>1</v>
@@ -4777,13 +4777,13 @@
         <v>2</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K126">
         <v>1</v>
@@ -4812,13 +4812,13 @@
         <v>2</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K127">
         <v>1</v>
@@ -4847,10 +4847,10 @@
         <v>2</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J128">
         <v>1</v>
@@ -4882,13 +4882,13 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I129">
         <v>5</v>
       </c>
       <c r="J129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K129">
         <v>1</v>
@@ -4917,7 +4917,7 @@
         <v>2</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I130">
         <v>4</v>
@@ -4952,10 +4952,10 @@
         <v>2</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J131">
         <v>2</v>
@@ -4987,13 +4987,13 @@
         <v>2</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I132">
         <v>4</v>
       </c>
       <c r="J132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K132">
         <v>2</v>
@@ -5022,13 +5022,13 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I133">
         <v>5</v>
       </c>
       <c r="J133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K133">
         <v>2</v>
@@ -5057,13 +5057,13 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J134">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K134">
         <v>1</v>
@@ -5092,13 +5092,13 @@
         <v>2</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J135">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K135">
         <v>2</v>
@@ -5127,10 +5127,10 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J136">
         <v>2</v>
@@ -5162,13 +5162,13 @@
         <v>2</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K137">
         <v>1</v>
@@ -5197,13 +5197,13 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K138">
         <v>1</v>
@@ -5232,10 +5232,10 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -5267,10 +5267,10 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -5302,13 +5302,13 @@
         <v>2</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J141">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K141">
         <v>1</v>
@@ -5337,10 +5337,10 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J142">
         <v>1</v>
@@ -5372,13 +5372,13 @@
         <v>2</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J143">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K143">
         <v>1</v>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K144">
         <v>2</v>
@@ -5442,10 +5442,10 @@
         <v>2</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I145">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -5477,13 +5477,13 @@
         <v>2</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I146">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J146">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K146">
         <v>1</v>
@@ -5512,13 +5512,13 @@
         <v>2</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I147">
         <v>4</v>
       </c>
       <c r="J147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K147">
         <v>2</v>
@@ -5547,13 +5547,13 @@
         <v>2</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I148">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K148">
         <v>1</v>
@@ -5582,13 +5582,13 @@
         <v>2</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I149">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J149">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K149">
         <v>1</v>
@@ -5617,13 +5617,13 @@
         <v>2</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I150">
         <v>4</v>
       </c>
       <c r="J150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K150">
         <v>2</v>
@@ -5652,13 +5652,13 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I151">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K151">
         <v>1</v>
@@ -5687,13 +5687,13 @@
         <v>2</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K152">
         <v>2</v>
@@ -5722,13 +5722,13 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K153">
         <v>1</v>
@@ -5757,13 +5757,13 @@
         <v>2</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I154">
         <v>5</v>
       </c>
       <c r="J154">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K154">
         <v>1</v>
@@ -5795,10 +5795,10 @@
         <v>1</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K155">
         <v>1</v>
@@ -5827,13 +5827,13 @@
         <v>2</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I156">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K156">
         <v>1</v>
@@ -5862,13 +5862,13 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I157">
         <v>4</v>
       </c>
       <c r="J157">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K157">
         <v>2</v>
@@ -5897,13 +5897,13 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I158">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K158">
         <v>1</v>
@@ -5932,13 +5932,13 @@
         <v>2</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I159">
         <v>5</v>
       </c>
       <c r="J159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K159">
         <v>1</v>
@@ -5967,13 +5967,13 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J160">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K160">
         <v>1</v>
@@ -6005,10 +6005,10 @@
         <v>1</v>
       </c>
       <c r="I161">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J161">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K161">
         <v>2</v>
@@ -6043,7 +6043,7 @@
         <v>4</v>
       </c>
       <c r="J162">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K162">
         <v>2</v>
@@ -6072,10 +6072,10 @@
         <v>2</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J163">
         <v>2</v>
@@ -6107,10 +6107,10 @@
         <v>2</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I164">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J164">
         <v>2</v>
@@ -6142,13 +6142,13 @@
         <v>2</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J165">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K165">
         <v>2</v>
@@ -6177,13 +6177,13 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K166">
         <v>2</v>
@@ -6212,10 +6212,10 @@
         <v>2</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I167">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J167">
         <v>2</v>
@@ -6247,13 +6247,13 @@
         <v>2</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I168">
         <v>2</v>
       </c>
       <c r="J168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K168">
         <v>2</v>
@@ -6282,7 +6282,7 @@
         <v>2</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169">
         <v>1</v>
@@ -6317,13 +6317,13 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K170">
         <v>1</v>
@@ -6352,13 +6352,13 @@
         <v>2</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171">
         <v>5</v>
       </c>
       <c r="J171">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K171">
         <v>2</v>
@@ -6387,13 +6387,13 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I172">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K172">
         <v>1</v>
@@ -6422,10 +6422,10 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I173">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J173">
         <v>2</v>
@@ -6457,13 +6457,13 @@
         <v>4</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I174">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J174">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K174">
         <v>1</v>
@@ -6492,13 +6492,13 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J175">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K175">
         <v>2</v>
@@ -6527,10 +6527,10 @@
         <v>2</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I176">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J176">
         <v>2</v>
@@ -6565,7 +6565,7 @@
         <v>1</v>
       </c>
       <c r="I177">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J177">
         <v>2</v>
@@ -6597,13 +6597,13 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178">
         <v>5</v>
       </c>
       <c r="J178">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K178">
         <v>2</v>
@@ -6632,10 +6632,10 @@
         <v>4</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I179">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J179">
         <v>2</v>
@@ -6667,10 +6667,10 @@
         <v>2</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I180">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J180">
         <v>1</v>
@@ -6702,10 +6702,10 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I181">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J181">
         <v>2</v>
@@ -6737,13 +6737,13 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I182">
         <v>5</v>
       </c>
       <c r="J182">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K182">
         <v>2</v>
@@ -6772,13 +6772,13 @@
         <v>2</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I183">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J183">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K183">
         <v>2</v>
@@ -6807,13 +6807,13 @@
         <v>2</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J184">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K184">
         <v>1</v>
@@ -6842,13 +6842,13 @@
         <v>2</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I185">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K185">
         <v>2</v>
@@ -6877,13 +6877,13 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186">
         <v>5</v>
       </c>
       <c r="J186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K186">
         <v>1</v>
@@ -6912,13 +6912,13 @@
         <v>4</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I187">
         <v>4</v>
       </c>
       <c r="J187">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K187">
         <v>1</v>
@@ -6947,13 +6947,13 @@
         <v>2</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I188">
         <v>5</v>
       </c>
       <c r="J188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K188">
         <v>1</v>
@@ -6982,13 +6982,13 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J189">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K189">
         <v>2</v>
@@ -7017,13 +7017,13 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I190">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K190">
         <v>1</v>
@@ -7052,10 +7052,10 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J191">
         <v>1</v>
@@ -7087,13 +7087,13 @@
         <v>2</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I192">
         <v>2</v>
       </c>
       <c r="J192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K192">
         <v>1</v>
@@ -7122,13 +7122,13 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I193">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K193">
         <v>2</v>
@@ -7157,13 +7157,13 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I194">
         <v>4</v>
       </c>
       <c r="J194">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K194">
         <v>1</v>
@@ -7192,13 +7192,13 @@
         <v>2</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J195">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K195">
         <v>2</v>
@@ -7227,13 +7227,13 @@
         <v>2</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I196">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K196">
         <v>1</v>
@@ -7262,13 +7262,13 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J197">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K197">
         <v>1</v>
@@ -7297,13 +7297,13 @@
         <v>4</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198">
         <v>4</v>
       </c>
       <c r="J198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K198">
         <v>2</v>
@@ -7332,13 +7332,13 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J199">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K199">
         <v>2</v>
@@ -7367,13 +7367,13 @@
         <v>2</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I200">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K200">
         <v>2</v>
@@ -7402,10 +7402,10 @@
         <v>2</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J201">
         <v>2</v>
@@ -7437,13 +7437,13 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202">
         <v>4</v>
       </c>
       <c r="J202">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K202">
         <v>1</v>
@@ -7472,13 +7472,13 @@
         <v>2</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I203">
         <v>1</v>
       </c>
       <c r="J203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K203">
         <v>2</v>
@@ -7507,13 +7507,13 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J204">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K204">
         <v>1</v>
@@ -7542,10 +7542,10 @@
         <v>2</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J205">
         <v>1</v>
@@ -7577,10 +7577,10 @@
         <v>4</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I206">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J206">
         <v>2</v>
@@ -7612,13 +7612,13 @@
         <v>2</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I207">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J207">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K207">
         <v>1</v>
@@ -7647,13 +7647,13 @@
         <v>2</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K208">
         <v>1</v>
@@ -7682,10 +7682,10 @@
         <v>2</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J209">
         <v>2</v>
@@ -7717,13 +7717,13 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210">
         <v>1</v>
       </c>
       <c r="J210">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K210">
         <v>1</v>
@@ -7752,13 +7752,13 @@
         <v>2</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I211">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J211">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K211">
         <v>1</v>
@@ -7790,10 +7790,10 @@
         <v>1</v>
       </c>
       <c r="I212">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K212">
         <v>2</v>
@@ -7822,13 +7822,13 @@
         <v>2</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I213">
         <v>4</v>
       </c>
       <c r="J213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K213">
         <v>2</v>
@@ -7857,10 +7857,10 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I214">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J214">
         <v>2</v>
@@ -7898,7 +7898,7 @@
         <v>4</v>
       </c>
       <c r="J215">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K215">
         <v>1</v>
@@ -7927,13 +7927,13 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I216">
         <v>5</v>
       </c>
       <c r="J216">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K216">
         <v>1</v>
@@ -7962,13 +7962,13 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I217">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J217">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K217">
         <v>2</v>
@@ -8000,10 +8000,10 @@
         <v>1</v>
       </c>
       <c r="I218">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K218">
         <v>1</v>
@@ -8032,13 +8032,13 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I219">
         <v>4</v>
       </c>
       <c r="J219">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K219">
         <v>2</v>
@@ -8067,13 +8067,13 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I220">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K220">
         <v>1</v>
@@ -8102,13 +8102,13 @@
         <v>2</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I221">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J221">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K221">
         <v>2</v>
@@ -8137,13 +8137,13 @@
         <v>2</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J222">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K222">
         <v>1</v>
@@ -8172,13 +8172,13 @@
         <v>2</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I223">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K223">
         <v>2</v>
@@ -8207,10 +8207,10 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I224">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J224">
         <v>2</v>
@@ -8242,13 +8242,13 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225">
         <v>4</v>
       </c>
       <c r="J225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K225">
         <v>2</v>
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I226">
         <v>4</v>
@@ -8312,10 +8312,10 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I227">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J227">
         <v>2</v>
@@ -8350,10 +8350,10 @@
         <v>1</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K228">
         <v>1</v>
@@ -8382,13 +8382,13 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I229">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J229">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K229">
         <v>2</v>
@@ -8417,13 +8417,13 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I230">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K230">
         <v>2</v>
@@ -8452,13 +8452,13 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I231">
         <v>5</v>
       </c>
       <c r="J231">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K231">
         <v>2</v>
@@ -8487,13 +8487,13 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I232">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J232">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K232">
         <v>2</v>
@@ -8522,13 +8522,13 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I233">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J233">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K233">
         <v>2</v>
@@ -8557,13 +8557,13 @@
         <v>2</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I234">
         <v>5</v>
       </c>
       <c r="J234">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K234">
         <v>2</v>
@@ -8592,7 +8592,7 @@
         <v>2</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I235">
         <v>4</v>
@@ -8627,7 +8627,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I236">
         <v>4</v>
@@ -8662,10 +8662,10 @@
         <v>2</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J237">
         <v>1</v>
@@ -8697,10 +8697,10 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I238">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J238">
         <v>2</v>
@@ -8732,10 +8732,10 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J239">
         <v>2</v>
@@ -8770,7 +8770,7 @@
         <v>1</v>
       </c>
       <c r="I240">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J240">
         <v>1</v>
@@ -8802,10 +8802,10 @@
         <v>2</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I241">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J241">
         <v>1</v>
@@ -8837,13 +8837,13 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I242">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K242">
         <v>2</v>
@@ -8872,7 +8872,7 @@
         <v>2</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I243">
         <v>5</v>
@@ -8907,13 +8907,13 @@
         <v>2</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K244">
         <v>1</v>
@@ -8942,13 +8942,13 @@
         <v>2</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I245">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K245">
         <v>2</v>
@@ -8977,10 +8977,10 @@
         <v>2</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I246">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J246">
         <v>2</v>
@@ -9012,13 +9012,13 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I247">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J247">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K247">
         <v>1</v>
@@ -9047,13 +9047,13 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J248">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K248">
         <v>2</v>
@@ -9082,13 +9082,13 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I249">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K249">
         <v>1</v>
@@ -9117,10 +9117,10 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I250">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J250">
         <v>2</v>
@@ -9152,13 +9152,13 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251">
         <v>1</v>
       </c>
       <c r="J251">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K251">
         <v>2</v>
@@ -9187,10 +9187,10 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I252">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J252">
         <v>1</v>
@@ -9222,13 +9222,13 @@
         <v>2</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I253">
         <v>4</v>
       </c>
       <c r="J253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K253">
         <v>1</v>
@@ -9257,13 +9257,13 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I254">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K254">
         <v>1</v>
@@ -9292,13 +9292,13 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I255">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J255">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K255">
         <v>2</v>
@@ -9327,13 +9327,13 @@
         <v>2</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I256">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K256">
         <v>2</v>
@@ -9362,13 +9362,13 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I257">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J257">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K257">
         <v>1</v>
@@ -9397,13 +9397,13 @@
         <v>2</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I258">
         <v>4</v>
       </c>
       <c r="J258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K258">
         <v>2</v>
@@ -9432,13 +9432,13 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I259">
         <v>5</v>
       </c>
       <c r="J259">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K259">
         <v>2</v>
@@ -9467,10 +9467,10 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I260">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J260">
         <v>1</v>
@@ -9502,13 +9502,13 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J261">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K261">
         <v>2</v>
@@ -9537,10 +9537,10 @@
         <v>2</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J262">
         <v>2</v>
@@ -9572,13 +9572,13 @@
         <v>2</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I263">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J263">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K263">
         <v>1</v>
@@ -9607,13 +9607,13 @@
         <v>2</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I264">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K264">
         <v>2</v>
@@ -9642,13 +9642,13 @@
         <v>2</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I265">
         <v>5</v>
       </c>
       <c r="J265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K265">
         <v>1</v>
@@ -9677,13 +9677,13 @@
         <v>2</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I266">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J266">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K266">
         <v>1</v>
@@ -9712,7 +9712,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267">
         <v>4</v>
@@ -9750,10 +9750,10 @@
         <v>1</v>
       </c>
       <c r="I268">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J268">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K268">
         <v>2</v>
@@ -9782,13 +9782,13 @@
         <v>2</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I269">
         <v>4</v>
       </c>
       <c r="J269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K269">
         <v>1</v>
@@ -9817,13 +9817,13 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270">
         <v>4</v>
       </c>
       <c r="J270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K270">
         <v>1</v>
@@ -9852,13 +9852,13 @@
         <v>2</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J271">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K271">
         <v>2</v>
@@ -9887,13 +9887,13 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I272">
         <v>4</v>
       </c>
       <c r="J272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K272">
         <v>1</v>
@@ -9922,13 +9922,13 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I273">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J273">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K273">
         <v>1</v>
@@ -9957,10 +9957,10 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I274">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J274">
         <v>2</v>
@@ -9992,13 +9992,13 @@
         <v>2</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I275">
         <v>4</v>
       </c>
       <c r="J275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K275">
         <v>2</v>
@@ -10027,10 +10027,10 @@
         <v>2</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J276">
         <v>2</v>
@@ -10062,13 +10062,13 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277">
         <v>5</v>
       </c>
       <c r="J277">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K277">
         <v>2</v>
@@ -10097,10 +10097,10 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I278">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J278">
         <v>2</v>
@@ -10132,10 +10132,10 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I279">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J279">
         <v>1</v>
@@ -10167,10 +10167,10 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I280">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J280">
         <v>2</v>
@@ -10202,10 +10202,10 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I281">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J281">
         <v>2</v>
@@ -10237,13 +10237,13 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I282">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J282">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K282">
         <v>2</v>
@@ -10272,13 +10272,13 @@
         <v>2</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K283">
         <v>2</v>
@@ -10307,13 +10307,13 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I284">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J284">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K284">
         <v>1</v>
@@ -10345,10 +10345,10 @@
         <v>1</v>
       </c>
       <c r="I285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K285">
         <v>2</v>
@@ -10377,13 +10377,13 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I286">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J286">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K286">
         <v>1</v>
@@ -10412,13 +10412,13 @@
         <v>1</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I287">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K287">
         <v>2</v>
@@ -10447,13 +10447,13 @@
         <v>1</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J288">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K288">
         <v>2</v>
@@ -10482,13 +10482,13 @@
         <v>1</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I289">
         <v>4</v>
       </c>
       <c r="J289">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K289">
         <v>1</v>
@@ -10517,13 +10517,13 @@
         <v>2</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290">
         <v>4</v>
       </c>
       <c r="J290">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K290">
         <v>2</v>
@@ -10552,7 +10552,7 @@
         <v>2</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I291">
         <v>5</v>
@@ -10587,13 +10587,13 @@
         <v>1</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I292">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K292">
         <v>2</v>
@@ -10622,13 +10622,13 @@
         <v>2</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J293">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K293">
         <v>1</v>
@@ -10657,13 +10657,13 @@
         <v>2</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I294">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J294">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K294">
         <v>2</v>
@@ -10692,13 +10692,13 @@
         <v>2</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I295">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J295">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K295">
         <v>2</v>
@@ -10727,10 +10727,10 @@
         <v>1</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J296">
         <v>2</v>
@@ -10765,10 +10765,10 @@
         <v>1</v>
       </c>
       <c r="I297">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J297">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K297">
         <v>2</v>
@@ -10797,13 +10797,13 @@
         <v>2</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I298">
         <v>4</v>
       </c>
       <c r="J298">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K298">
         <v>2</v>
@@ -10832,13 +10832,13 @@
         <v>2</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I299">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K299">
         <v>2</v>
@@ -10867,10 +10867,10 @@
         <v>1</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J300">
         <v>2</v>
@@ -10902,13 +10902,13 @@
         <v>2</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I301">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K301">
         <v>2</v>
@@ -10937,13 +10937,13 @@
         <v>1</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302">
         <v>1</v>
       </c>
       <c r="J302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K302">
         <v>2</v>
@@ -10972,13 +10972,13 @@
         <v>2</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K303">
         <v>1</v>
@@ -11007,10 +11007,10 @@
         <v>1</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I304">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J304">
         <v>2</v>
@@ -11042,13 +11042,13 @@
         <v>1</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I305">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J305">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K305">
         <v>1</v>
@@ -11077,13 +11077,13 @@
         <v>1</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I306">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K306">
         <v>2</v>
@@ -11112,13 +11112,13 @@
         <v>1</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J307">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K307">
         <v>1</v>
@@ -11147,13 +11147,13 @@
         <v>2</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I308">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J308">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K308">
         <v>1</v>
@@ -11182,10 +11182,10 @@
         <v>1</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I309">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J309">
         <v>1</v>
@@ -11217,13 +11217,13 @@
         <v>2</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I310">
         <v>5</v>
       </c>
       <c r="J310">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K310">
         <v>2</v>
@@ -11252,10 +11252,10 @@
         <v>2</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I311">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J311">
         <v>2</v>
@@ -11287,13 +11287,13 @@
         <v>2</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I312">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J312">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K312">
         <v>2</v>
@@ -11325,7 +11325,7 @@
         <v>1</v>
       </c>
       <c r="I313">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J313">
         <v>2</v>
@@ -11357,13 +11357,13 @@
         <v>1</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I314">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K314">
         <v>1</v>
@@ -11398,7 +11398,7 @@
         <v>4</v>
       </c>
       <c r="J315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K315">
         <v>1</v>
@@ -11427,10 +11427,10 @@
         <v>2</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I316">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J316">
         <v>2</v>
@@ -11462,13 +11462,13 @@
         <v>2</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I317">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J317">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K317">
         <v>1</v>
@@ -11497,13 +11497,13 @@
         <v>1</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318">
         <v>4</v>
       </c>
       <c r="J318">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K318">
         <v>2</v>
@@ -11532,13 +11532,13 @@
         <v>1</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I319">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J319">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K319">
         <v>1</v>
@@ -11567,10 +11567,10 @@
         <v>2</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J320">
         <v>2</v>
@@ -11602,13 +11602,13 @@
         <v>1</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J321">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K321">
         <v>1</v>
@@ -11637,13 +11637,13 @@
         <v>1</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I322">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J322">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K322">
         <v>1</v>
@@ -11672,13 +11672,13 @@
         <v>1</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J323">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K323">
         <v>2</v>
@@ -11707,13 +11707,13 @@
         <v>1</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I324">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J324">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K324">
         <v>1</v>
@@ -11742,10 +11742,10 @@
         <v>1</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I325">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J325">
         <v>1</v>
@@ -11780,10 +11780,10 @@
         <v>1</v>
       </c>
       <c r="I326">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J326">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K326">
         <v>2</v>
@@ -11812,13 +11812,13 @@
         <v>2</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I327">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J327">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K327">
         <v>2</v>
@@ -11847,13 +11847,13 @@
         <v>1</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I328">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K328">
         <v>2</v>
@@ -11882,7 +11882,7 @@
         <v>2</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I329">
         <v>4</v>
@@ -11917,7 +11917,7 @@
         <v>1</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I330">
         <v>5</v>
@@ -11952,13 +11952,13 @@
         <v>2</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I331">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J331">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K331">
         <v>1</v>
@@ -11987,10 +11987,10 @@
         <v>1</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I332">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J332">
         <v>2</v>
@@ -12022,7 +12022,7 @@
         <v>1</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I333">
         <v>2</v>
@@ -12057,13 +12057,13 @@
         <v>1</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I334">
         <v>5</v>
       </c>
       <c r="J334">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K334">
         <v>2</v>
@@ -12092,13 +12092,13 @@
         <v>2</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I335">
         <v>5</v>
       </c>
       <c r="J335">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K335">
         <v>2</v>
@@ -12127,7 +12127,7 @@
         <v>1</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I336">
         <v>5</v>
@@ -12162,7 +12162,7 @@
         <v>2</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I337">
         <v>1</v>
@@ -12197,13 +12197,13 @@
         <v>2</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I338">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J338">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K338">
         <v>1</v>
@@ -12232,13 +12232,13 @@
         <v>2</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I339">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J339">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K339">
         <v>1</v>
@@ -12267,13 +12267,13 @@
         <v>2</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I340">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J340">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K340">
         <v>2</v>
@@ -12302,13 +12302,13 @@
         <v>1</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I341">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J341">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K341">
         <v>1</v>
@@ -12337,13 +12337,13 @@
         <v>1</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I342">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K342">
         <v>1</v>
@@ -12372,10 +12372,10 @@
         <v>1</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I343">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J343">
         <v>1</v>
@@ -12407,13 +12407,13 @@
         <v>2</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I344">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J344">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K344">
         <v>1</v>
@@ -12442,13 +12442,13 @@
         <v>2</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I345">
         <v>4</v>
       </c>
       <c r="J345">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K345">
         <v>2</v>
@@ -12477,10 +12477,10 @@
         <v>2</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I346">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J346">
         <v>1</v>
@@ -12512,13 +12512,13 @@
         <v>1</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I347">
         <v>4</v>
       </c>
       <c r="J347">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K347">
         <v>2</v>
@@ -12547,13 +12547,13 @@
         <v>1</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I348">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J348">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K348">
         <v>1</v>
@@ -12582,10 +12582,10 @@
         <v>1</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I349">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J349">
         <v>1</v>
@@ -12617,13 +12617,13 @@
         <v>1</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I350">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J350">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K350">
         <v>2</v>
@@ -12652,13 +12652,13 @@
         <v>2</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I351">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J351">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K351">
         <v>2</v>
@@ -12687,13 +12687,13 @@
         <v>2</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I352">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J352">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K352">
         <v>2</v>
@@ -12722,13 +12722,13 @@
         <v>1</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I353">
         <v>4</v>
       </c>
       <c r="J353">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K353">
         <v>1</v>
@@ -12757,10 +12757,10 @@
         <v>1</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I354">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J354">
         <v>1</v>
@@ -12792,7 +12792,7 @@
         <v>2</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I355">
         <v>4</v>
@@ -12827,10 +12827,10 @@
         <v>2</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I356">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J356">
         <v>2</v>
@@ -12862,13 +12862,13 @@
         <v>1</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I357">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J357">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K357">
         <v>2</v>
@@ -12897,13 +12897,13 @@
         <v>1</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I358">
         <v>5</v>
       </c>
       <c r="J358">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K358">
         <v>1</v>
@@ -12932,13 +12932,13 @@
         <v>2</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I359">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J359">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K359">
         <v>1</v>
@@ -12967,13 +12967,13 @@
         <v>1</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I360">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J360">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K360">
         <v>2</v>
@@ -13002,13 +13002,13 @@
         <v>1</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I361">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J361">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K361">
         <v>2</v>
@@ -13040,10 +13040,10 @@
         <v>1</v>
       </c>
       <c r="I362">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J362">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K362">
         <v>1</v>
@@ -13072,10 +13072,10 @@
         <v>2</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I363">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J363">
         <v>2</v>
@@ -13107,10 +13107,10 @@
         <v>1</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I364">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J364">
         <v>1</v>
@@ -13142,10 +13142,10 @@
         <v>2</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I365">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J365">
         <v>2</v>
@@ -13177,13 +13177,13 @@
         <v>1</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I366">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J366">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K366">
         <v>2</v>
@@ -13212,10 +13212,10 @@
         <v>2</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I367">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J367">
         <v>2</v>
@@ -13247,13 +13247,13 @@
         <v>1</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I368">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J368">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K368">
         <v>1</v>
@@ -13282,10 +13282,10 @@
         <v>2</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I369">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J369">
         <v>2</v>
@@ -13317,13 +13317,13 @@
         <v>1</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I370">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J370">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K370">
         <v>1</v>
@@ -13352,13 +13352,13 @@
         <v>2</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I371">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J371">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K371">
         <v>1</v>
@@ -13387,13 +13387,13 @@
         <v>2</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I372">
         <v>5</v>
       </c>
       <c r="J372">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K372">
         <v>2</v>
@@ -13422,13 +13422,13 @@
         <v>2</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I373">
         <v>4</v>
       </c>
       <c r="J373">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K373">
         <v>1</v>
@@ -13457,13 +13457,13 @@
         <v>2</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I374">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J374">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K374">
         <v>2</v>
@@ -13492,13 +13492,13 @@
         <v>1</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I375">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J375">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K375">
         <v>2</v>
@@ -13527,13 +13527,13 @@
         <v>2</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I376">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J376">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K376">
         <v>2</v>
@@ -13562,13 +13562,13 @@
         <v>2</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I377">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J377">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K377">
         <v>2</v>
@@ -13597,13 +13597,13 @@
         <v>1</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I378">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K378">
         <v>1</v>
@@ -13632,13 +13632,13 @@
         <v>1</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J379">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K379">
         <v>2</v>
@@ -13667,13 +13667,13 @@
         <v>2</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I380">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J380">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K380">
         <v>1</v>
@@ -13702,10 +13702,10 @@
         <v>2</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I381">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J381">
         <v>1</v>
@@ -13737,13 +13737,13 @@
         <v>2</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I382">
         <v>5</v>
       </c>
       <c r="J382">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K382">
         <v>2</v>
@@ -13772,13 +13772,13 @@
         <v>2</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I383">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J383">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K383">
         <v>1</v>
@@ -13813,7 +13813,7 @@
         <v>4</v>
       </c>
       <c r="J384">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K384">
         <v>2</v>
@@ -13842,13 +13842,13 @@
         <v>2</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I385">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J385">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K385">
         <v>1</v>
@@ -13877,13 +13877,13 @@
         <v>2</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I386">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J386">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K386">
         <v>2</v>
@@ -13912,13 +13912,13 @@
         <v>1</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I387">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J387">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K387">
         <v>1</v>
@@ -13947,13 +13947,13 @@
         <v>1</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I388">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J388">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K388">
         <v>2</v>
@@ -13982,13 +13982,13 @@
         <v>1</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I389">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J389">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K389">
         <v>2</v>
@@ -14020,10 +14020,10 @@
         <v>1</v>
       </c>
       <c r="I390">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J390">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K390">
         <v>1</v>
@@ -14052,13 +14052,13 @@
         <v>2</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I391">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J391">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K391">
         <v>1</v>
@@ -14087,13 +14087,13 @@
         <v>1</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I392">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J392">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K392">
         <v>2</v>
@@ -14122,13 +14122,13 @@
         <v>2</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I393">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J393">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K393">
         <v>1</v>
@@ -14157,13 +14157,13 @@
         <v>2</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I394">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J394">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K394">
         <v>2</v>
@@ -14192,13 +14192,13 @@
         <v>2</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I395">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J395">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K395">
         <v>2</v>
@@ -14227,10 +14227,10 @@
         <v>2</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I396">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J396">
         <v>2</v>
@@ -14262,13 +14262,13 @@
         <v>2</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I397">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J397">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K397">
         <v>2</v>
@@ -14297,13 +14297,13 @@
         <v>2</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I398">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J398">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K398">
         <v>1</v>
@@ -14332,13 +14332,13 @@
         <v>1</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I399">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J399">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K399">
         <v>2</v>
@@ -14367,13 +14367,13 @@
         <v>2</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I400">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J400">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K400">
         <v>1</v>
@@ -14402,13 +14402,13 @@
         <v>1</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I401">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J401">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K401">
         <v>2</v>
@@ -14437,13 +14437,13 @@
         <v>1</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I402">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J402">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K402">
         <v>2</v>
@@ -14472,13 +14472,13 @@
         <v>1</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I403">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J403">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K403">
         <v>1</v>
@@ -14507,13 +14507,13 @@
         <v>1</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I404">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J404">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K404">
         <v>1</v>
@@ -14542,13 +14542,13 @@
         <v>1</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I405">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J405">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K405">
         <v>2</v>
@@ -14580,10 +14580,10 @@
         <v>1</v>
       </c>
       <c r="I406">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J406">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K406">
         <v>2</v>
@@ -14612,13 +14612,13 @@
         <v>1</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I407">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J407">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K407">
         <v>2</v>
@@ -14647,13 +14647,13 @@
         <v>2</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I408">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J408">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K408">
         <v>2</v>
@@ -14682,7 +14682,7 @@
         <v>1</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I409">
         <v>4</v>
@@ -14717,13 +14717,13 @@
         <v>1</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I410">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J410">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K410">
         <v>1</v>
@@ -14758,7 +14758,7 @@
         <v>4</v>
       </c>
       <c r="J411">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K411">
         <v>1</v>
@@ -14787,13 +14787,13 @@
         <v>1</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I412">
         <v>1</v>
       </c>
       <c r="J412">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K412">
         <v>1</v>
@@ -14825,10 +14825,10 @@
         <v>1</v>
       </c>
       <c r="I413">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J413">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K413">
         <v>2</v>
@@ -14857,13 +14857,13 @@
         <v>1</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I414">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J414">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K414">
         <v>2</v>
@@ -14892,10 +14892,10 @@
         <v>2</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I415">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J415">
         <v>2</v>
@@ -14927,13 +14927,13 @@
         <v>4</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I416">
         <v>4</v>
       </c>
       <c r="J416">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K416">
         <v>2</v>
@@ -14962,7 +14962,7 @@
         <v>2</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I417">
         <v>4</v>
@@ -14997,10 +14997,10 @@
         <v>2</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I418">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J418">
         <v>2</v>
@@ -15032,13 +15032,13 @@
         <v>3</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I419">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J419">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K419">
         <v>2</v>
@@ -15067,7 +15067,7 @@
         <v>2</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I420">
         <v>4</v>
@@ -15102,13 +15102,13 @@
         <v>4</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I421">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J421">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K421">
         <v>1</v>
@@ -15137,13 +15137,13 @@
         <v>2</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I422">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J422">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K422">
         <v>2</v>
@@ -15172,10 +15172,10 @@
         <v>2</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I423">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J423">
         <v>2</v>
@@ -15207,13 +15207,13 @@
         <v>2</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I424">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J424">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K424">
         <v>1</v>
@@ -15242,13 +15242,13 @@
         <v>2</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I425">
         <v>4</v>
       </c>
       <c r="J425">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K425">
         <v>1</v>
@@ -15277,13 +15277,13 @@
         <v>2</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I426">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J426">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K426">
         <v>1</v>
@@ -15312,13 +15312,13 @@
         <v>1</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I427">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J427">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K427">
         <v>2</v>
@@ -15347,13 +15347,13 @@
         <v>2</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I428">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J428">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K428">
         <v>2</v>
@@ -15382,13 +15382,13 @@
         <v>2</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I429">
         <v>4</v>
       </c>
       <c r="J429">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K429">
         <v>1</v>
@@ -15417,13 +15417,13 @@
         <v>1</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I430">
         <v>4</v>
       </c>
       <c r="J430">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K430">
         <v>2</v>
@@ -15452,7 +15452,7 @@
         <v>2</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I431">
         <v>5</v>
@@ -15487,13 +15487,13 @@
         <v>1</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I432">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J432">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K432">
         <v>1</v>
@@ -15522,13 +15522,13 @@
         <v>2</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I433">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J433">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K433">
         <v>2</v>
@@ -15563,7 +15563,7 @@
         <v>4</v>
       </c>
       <c r="J434">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K434">
         <v>1</v>
@@ -15592,13 +15592,13 @@
         <v>2</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I435">
         <v>5</v>
       </c>
       <c r="J435">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K435">
         <v>1</v>
@@ -15627,13 +15627,13 @@
         <v>2</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I436">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J436">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K436">
         <v>1</v>
@@ -15662,13 +15662,13 @@
         <v>2</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I437">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J437">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K437">
         <v>2</v>
@@ -15697,13 +15697,13 @@
         <v>2</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I438">
         <v>5</v>
       </c>
       <c r="J438">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K438">
         <v>2</v>
@@ -15732,13 +15732,13 @@
         <v>2</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I439">
         <v>4</v>
       </c>
       <c r="J439">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K439">
         <v>2</v>
@@ -15767,13 +15767,13 @@
         <v>1</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I440">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J440">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K440">
         <v>2</v>
@@ -15802,13 +15802,13 @@
         <v>1</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I441">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J441">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K441">
         <v>1</v>
@@ -15837,13 +15837,13 @@
         <v>1</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I442">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J442">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K442">
         <v>2</v>
@@ -15872,7 +15872,7 @@
         <v>4</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I443">
         <v>2</v>
@@ -15907,13 +15907,13 @@
         <v>2</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I444">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J444">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K444">
         <v>2</v>
@@ -15942,13 +15942,13 @@
         <v>1</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I445">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J445">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K445">
         <v>1</v>
@@ -15980,10 +15980,10 @@
         <v>1</v>
       </c>
       <c r="I446">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J446">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K446">
         <v>2</v>
@@ -16012,13 +16012,13 @@
         <v>2</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I447">
         <v>5</v>
       </c>
       <c r="J447">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K447">
         <v>1</v>
@@ -16047,13 +16047,13 @@
         <v>1</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I448">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J448">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K448">
         <v>1</v>
@@ -16082,13 +16082,13 @@
         <v>2</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I449">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J449">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K449">
         <v>2</v>
@@ -16117,10 +16117,10 @@
         <v>1</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I450">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J450">
         <v>2</v>
@@ -16152,13 +16152,13 @@
         <v>2</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I451">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J451">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K451">
         <v>1</v>
@@ -16187,13 +16187,13 @@
         <v>2</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I452">
         <v>4</v>
       </c>
       <c r="J452">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K452">
         <v>1</v>
@@ -16257,13 +16257,13 @@
         <v>2</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I454">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J454">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K454">
         <v>1</v>
@@ -16292,13 +16292,13 @@
         <v>2</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I455">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J455">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K455">
         <v>2</v>
@@ -16327,7 +16327,7 @@
         <v>1</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I456">
         <v>4</v>
@@ -16362,13 +16362,13 @@
         <v>1</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I457">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J457">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K457">
         <v>2</v>
@@ -16397,13 +16397,13 @@
         <v>2</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I458">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J458">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K458">
         <v>2</v>
@@ -16432,13 +16432,13 @@
         <v>1</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I459">
         <v>4</v>
       </c>
       <c r="J459">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K459">
         <v>1</v>
@@ -16502,13 +16502,13 @@
         <v>1</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I461">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J461">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K461">
         <v>1</v>
@@ -16537,13 +16537,13 @@
         <v>1</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I462">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J462">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K462">
         <v>2</v>
@@ -16572,13 +16572,13 @@
         <v>2</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I463">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J463">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K463">
         <v>1</v>
@@ -16607,13 +16607,13 @@
         <v>1</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I464">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J464">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K464">
         <v>1</v>
@@ -16642,13 +16642,13 @@
         <v>1</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I465">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J465">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K465">
         <v>2</v>
@@ -16677,10 +16677,10 @@
         <v>2</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I466">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J466">
         <v>2</v>
@@ -16715,7 +16715,7 @@
         <v>1</v>
       </c>
       <c r="I467">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J467">
         <v>2</v>
@@ -16747,13 +16747,13 @@
         <v>1</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I468">
         <v>4</v>
       </c>
       <c r="J468">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K468">
         <v>2</v>
@@ -16782,13 +16782,13 @@
         <v>1</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I469">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J469">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K469">
         <v>2</v>
@@ -16817,10 +16817,10 @@
         <v>2</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I470">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J470">
         <v>2</v>
@@ -16852,10 +16852,10 @@
         <v>2</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I471">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J471">
         <v>2</v>
@@ -16887,10 +16887,10 @@
         <v>1</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I472">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J472">
         <v>2</v>
@@ -16922,10 +16922,10 @@
         <v>1</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I473">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J473">
         <v>2</v>
@@ -16957,13 +16957,13 @@
         <v>1</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I474">
         <v>4</v>
       </c>
       <c r="J474">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K474">
         <v>2</v>
@@ -16992,13 +16992,13 @@
         <v>2</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I475">
         <v>2</v>
       </c>
       <c r="J475">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K475">
         <v>2</v>
@@ -17027,7 +17027,7 @@
         <v>1</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I476">
         <v>5</v>
@@ -17062,13 +17062,13 @@
         <v>1</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I477">
         <v>2</v>
       </c>
       <c r="J477">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K477">
         <v>1</v>
@@ -17097,13 +17097,13 @@
         <v>1</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I478">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J478">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K478">
         <v>1</v>
@@ -17135,7 +17135,7 @@
         <v>1</v>
       </c>
       <c r="I479">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J479">
         <v>1</v>
@@ -17167,13 +17167,13 @@
         <v>2</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I480">
         <v>4</v>
       </c>
       <c r="J480">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K480">
         <v>2</v>
@@ -17202,10 +17202,10 @@
         <v>1</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I481">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J481">
         <v>2</v>
@@ -17240,10 +17240,10 @@
         <v>1</v>
       </c>
       <c r="I482">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J482">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K482">
         <v>1</v>
@@ -17272,13 +17272,13 @@
         <v>1</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I483">
         <v>4</v>
       </c>
       <c r="J483">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K483">
         <v>1</v>
@@ -17307,13 +17307,13 @@
         <v>2</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I484">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K484">
         <v>2</v>
@@ -17342,10 +17342,10 @@
         <v>2</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I485">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J485">
         <v>2</v>
@@ -17377,13 +17377,13 @@
         <v>1</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I486">
         <v>4</v>
       </c>
       <c r="J486">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K486">
         <v>2</v>
@@ -17412,10 +17412,10 @@
         <v>1</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I487">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J487">
         <v>1</v>

--- a/pre_pmagy_obj3_edu.xlsx
+++ b/pre_pmagy_obj3_edu.xlsx
@@ -437,13 +437,13 @@
         <v>4</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -510,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -542,13 +542,13 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -612,13 +612,13 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -647,13 +647,13 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -682,13 +682,13 @@
         <v>2</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -717,13 +717,13 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -752,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>4</v>
@@ -787,10 +787,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -828,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -857,10 +857,10 @@
         <v>2</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -892,10 +892,10 @@
         <v>4</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -927,10 +927,10 @@
         <v>2</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16">
         <v>4</v>
@@ -962,13 +962,13 @@
         <v>2</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <v>5</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1000,10 +1000,10 @@
         <v>4</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1032,13 +1032,13 @@
         <v>4</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1067,13 +1067,13 @@
         <v>2</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1105,10 +1105,10 @@
         <v>4</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1140,7 +1140,7 @@
         <v>5</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1172,13 +1172,13 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1207,10 +1207,10 @@
         <v>2</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -1242,13 +1242,13 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1283,7 +1283,7 @@
         <v>5</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -1347,13 +1347,13 @@
         <v>2</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -1382,7 +1382,7 @@
         <v>2</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>5</v>
@@ -1417,13 +1417,13 @@
         <v>2</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -1452,13 +1452,13 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -1487,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I32">
         <v>5</v>
@@ -1525,10 +1525,10 @@
         <v>4</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -1557,13 +1557,13 @@
         <v>2</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -1595,10 +1595,10 @@
         <v>2</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -1630,7 +1630,7 @@
         <v>5</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J36">
         <v>5</v>
@@ -1662,13 +1662,13 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>4</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -1697,13 +1697,13 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>4</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -1732,10 +1732,10 @@
         <v>2</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>2</v>
@@ -1770,7 +1770,7 @@
         <v>4</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -1802,10 +1802,10 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -1843,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -1872,10 +1872,10 @@
         <v>2</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -1907,13 +1907,13 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="J45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -1977,10 +1977,10 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J46">
         <v>2</v>
@@ -2012,13 +2012,13 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -2047,13 +2047,13 @@
         <v>2</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I48">
         <v>4</v>
       </c>
       <c r="J48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -2082,13 +2082,13 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -2120,10 +2120,10 @@
         <v>4</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -2152,10 +2152,10 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J51">
         <v>4</v>
@@ -2187,10 +2187,10 @@
         <v>2</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J52">
         <v>4</v>
@@ -2222,13 +2222,13 @@
         <v>2</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I53">
         <v>5</v>
       </c>
       <c r="J53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -2257,13 +2257,13 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -2298,7 +2298,7 @@
         <v>4</v>
       </c>
       <c r="J55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -2327,7 +2327,7 @@
         <v>2</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I56">
         <v>5</v>
@@ -2362,13 +2362,13 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I57">
         <v>5</v>
       </c>
       <c r="J57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -2397,13 +2397,13 @@
         <v>2</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -2432,13 +2432,13 @@
         <v>2</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -2467,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I60">
         <v>4</v>
@@ -2502,13 +2502,13 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I61">
         <v>4</v>
       </c>
       <c r="J61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -2537,13 +2537,13 @@
         <v>2</v>
       </c>
       <c r="H62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J62">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -2572,13 +2572,13 @@
         <v>4</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -2607,10 +2607,10 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -2642,13 +2642,13 @@
         <v>3</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -2680,10 +2680,10 @@
         <v>4</v>
       </c>
       <c r="I66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -2712,13 +2712,13 @@
         <v>2</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -2747,13 +2747,13 @@
         <v>2</v>
       </c>
       <c r="H68">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>5</v>
       </c>
       <c r="J68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -2782,13 +2782,13 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I69">
         <v>4</v>
       </c>
       <c r="J69">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -2817,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I70">
         <v>4</v>
@@ -2852,13 +2852,13 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -2893,7 +2893,7 @@
         <v>1</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -2925,10 +2925,10 @@
         <v>4</v>
       </c>
       <c r="I73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -2957,13 +2957,13 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -2995,10 +2995,10 @@
         <v>4</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -3068,7 +3068,7 @@
         <v>5</v>
       </c>
       <c r="J77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -3097,10 +3097,10 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I78">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -3132,13 +3132,13 @@
         <v>2</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -3170,7 +3170,7 @@
         <v>4</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J80">
         <v>5</v>
@@ -3202,13 +3202,13 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -3240,10 +3240,10 @@
         <v>4</v>
       </c>
       <c r="I82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J82">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -3275,10 +3275,10 @@
         <v>1</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J83">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -3310,7 +3310,7 @@
         <v>4</v>
       </c>
       <c r="I84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J84">
         <v>2</v>
@@ -3342,13 +3342,13 @@
         <v>2</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I85">
         <v>4</v>
       </c>
       <c r="J85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -3380,10 +3380,10 @@
         <v>4</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -3412,13 +3412,13 @@
         <v>2</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -3447,10 +3447,10 @@
         <v>2</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J88">
         <v>2</v>
@@ -3482,13 +3482,13 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -3520,7 +3520,7 @@
         <v>5</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J90">
         <v>4</v>
@@ -3558,7 +3558,7 @@
         <v>4</v>
       </c>
       <c r="J91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -3590,10 +3590,10 @@
         <v>2</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -3628,7 +3628,7 @@
         <v>5</v>
       </c>
       <c r="J93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -3657,10 +3657,10 @@
         <v>2</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J94">
         <v>2</v>
@@ -3692,7 +3692,7 @@
         <v>4</v>
       </c>
       <c r="H95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>5</v>
@@ -3727,13 +3727,13 @@
         <v>2</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -3762,10 +3762,10 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -3797,13 +3797,13 @@
         <v>2</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -3838,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K99">
         <v>2</v>
@@ -3870,10 +3870,10 @@
         <v>2</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J100">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -3905,10 +3905,10 @@
         <v>4</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -3937,13 +3937,13 @@
         <v>3</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K102">
         <v>1</v>
@@ -3978,7 +3978,7 @@
         <v>4</v>
       </c>
       <c r="J103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K103">
         <v>1</v>
@@ -4007,13 +4007,13 @@
         <v>2</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J104">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K104">
         <v>1</v>
@@ -4042,13 +4042,13 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K105">
         <v>1</v>
@@ -4077,13 +4077,13 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K106">
         <v>1</v>
@@ -4118,7 +4118,7 @@
         <v>5</v>
       </c>
       <c r="J107">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K107">
         <v>2</v>
@@ -4147,13 +4147,13 @@
         <v>2</v>
       </c>
       <c r="H108">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I108">
         <v>5</v>
       </c>
       <c r="J108">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K108">
         <v>1</v>
@@ -4185,10 +4185,10 @@
         <v>4</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K109">
         <v>1</v>
@@ -4220,10 +4220,10 @@
         <v>5</v>
       </c>
       <c r="I110">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K110">
         <v>1</v>
@@ -4252,13 +4252,13 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J111">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K111">
         <v>2</v>
@@ -4287,13 +4287,13 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I112">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J112">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -4322,13 +4322,13 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K113">
         <v>2</v>
@@ -4360,7 +4360,7 @@
         <v>4</v>
       </c>
       <c r="I114">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J114">
         <v>4</v>
@@ -4398,7 +4398,7 @@
         <v>4</v>
       </c>
       <c r="J115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K115">
         <v>2</v>
@@ -4427,13 +4427,13 @@
         <v>2</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K116">
         <v>2</v>
@@ -4468,7 +4468,7 @@
         <v>4</v>
       </c>
       <c r="J117">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -4497,10 +4497,10 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J118">
         <v>2</v>
@@ -4532,13 +4532,13 @@
         <v>2</v>
       </c>
       <c r="H119">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I119">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K119">
         <v>1</v>
@@ -4570,10 +4570,10 @@
         <v>5</v>
       </c>
       <c r="I120">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K120">
         <v>2</v>
@@ -4605,10 +4605,10 @@
         <v>5</v>
       </c>
       <c r="I121">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K121">
         <v>2</v>
@@ -4637,10 +4637,10 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -4678,7 +4678,7 @@
         <v>4</v>
       </c>
       <c r="J123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K123">
         <v>1</v>
@@ -4707,13 +4707,13 @@
         <v>2</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>5</v>
       </c>
       <c r="J124">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K124">
         <v>1</v>
@@ -4742,13 +4742,13 @@
         <v>2</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K125">
         <v>1</v>
@@ -4780,7 +4780,7 @@
         <v>5</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J126">
         <v>2</v>
@@ -4812,10 +4812,10 @@
         <v>2</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J127">
         <v>4</v>
@@ -4847,13 +4847,13 @@
         <v>2</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I128">
         <v>2</v>
       </c>
       <c r="J128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K128">
         <v>1</v>
@@ -4885,10 +4885,10 @@
         <v>5</v>
       </c>
       <c r="I129">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K129">
         <v>1</v>
@@ -4917,13 +4917,13 @@
         <v>2</v>
       </c>
       <c r="H130">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>4</v>
       </c>
       <c r="J130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K130">
         <v>1</v>
@@ -4955,10 +4955,10 @@
         <v>2</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K131">
         <v>2</v>
@@ -4987,10 +4987,10 @@
         <v>2</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I132">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J132">
         <v>2</v>
@@ -5025,10 +5025,10 @@
         <v>4</v>
       </c>
       <c r="I133">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K133">
         <v>2</v>
@@ -5057,13 +5057,13 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I134">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J134">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K134">
         <v>1</v>
@@ -5092,10 +5092,10 @@
         <v>2</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J135">
         <v>4</v>
@@ -5130,10 +5130,10 @@
         <v>5</v>
       </c>
       <c r="I136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J136">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K136">
         <v>1</v>
@@ -5162,10 +5162,10 @@
         <v>2</v>
       </c>
       <c r="H137">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J137">
         <v>4</v>
@@ -5197,13 +5197,13 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I138">
         <v>4</v>
       </c>
       <c r="J138">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K138">
         <v>1</v>
@@ -5232,7 +5232,7 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>5</v>
@@ -5267,10 +5267,10 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -5302,13 +5302,13 @@
         <v>2</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J141">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K141">
         <v>1</v>
@@ -5340,10 +5340,10 @@
         <v>5</v>
       </c>
       <c r="I142">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K142">
         <v>1</v>
@@ -5372,13 +5372,13 @@
         <v>2</v>
       </c>
       <c r="H143">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K143">
         <v>1</v>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K144">
         <v>2</v>
@@ -5442,10 +5442,10 @@
         <v>2</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -5483,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="J146">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K146">
         <v>1</v>
@@ -5512,13 +5512,13 @@
         <v>2</v>
       </c>
       <c r="H147">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K147">
         <v>2</v>
@@ -5550,10 +5550,10 @@
         <v>5</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K148">
         <v>1</v>
@@ -5582,13 +5582,13 @@
         <v>2</v>
       </c>
       <c r="H149">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K149">
         <v>1</v>
@@ -5623,7 +5623,7 @@
         <v>4</v>
       </c>
       <c r="J150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K150">
         <v>2</v>
@@ -5652,13 +5652,13 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I151">
         <v>4</v>
       </c>
       <c r="J151">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K151">
         <v>1</v>
@@ -5690,10 +5690,10 @@
         <v>5</v>
       </c>
       <c r="I152">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K152">
         <v>2</v>
@@ -5722,13 +5722,13 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J153">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K153">
         <v>1</v>
@@ -5757,13 +5757,13 @@
         <v>2</v>
       </c>
       <c r="H154">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I154">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J154">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K154">
         <v>1</v>
@@ -5792,7 +5792,7 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I155">
         <v>5</v>
@@ -5827,7 +5827,7 @@
         <v>2</v>
       </c>
       <c r="H156">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I156">
         <v>5</v>
@@ -5862,13 +5862,13 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I157">
         <v>4</v>
       </c>
       <c r="J157">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K157">
         <v>2</v>
@@ -5897,13 +5897,13 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K158">
         <v>1</v>
@@ -5932,13 +5932,13 @@
         <v>2</v>
       </c>
       <c r="H159">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I159">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K159">
         <v>1</v>
@@ -5967,10 +5967,10 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J160">
         <v>5</v>
@@ -6002,13 +6002,13 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J161">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K161">
         <v>2</v>
@@ -6037,13 +6037,13 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I162">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J162">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K162">
         <v>2</v>
@@ -6072,13 +6072,13 @@
         <v>2</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I163">
         <v>5</v>
       </c>
       <c r="J163">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K163">
         <v>2</v>
@@ -6110,10 +6110,10 @@
         <v>4</v>
       </c>
       <c r="I164">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J164">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K164">
         <v>1</v>
@@ -6145,10 +6145,10 @@
         <v>2</v>
       </c>
       <c r="I165">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J165">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K165">
         <v>2</v>
@@ -6177,13 +6177,13 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I166">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J166">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K166">
         <v>2</v>
@@ -6212,10 +6212,10 @@
         <v>2</v>
       </c>
       <c r="H167">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J167">
         <v>2</v>
@@ -6247,13 +6247,13 @@
         <v>2</v>
       </c>
       <c r="H168">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J168">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K168">
         <v>2</v>
@@ -6282,13 +6282,13 @@
         <v>2</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K169">
         <v>1</v>
@@ -6317,13 +6317,13 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J170">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K170">
         <v>1</v>
@@ -6355,7 +6355,7 @@
         <v>2</v>
       </c>
       <c r="I171">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J171">
         <v>5</v>
@@ -6390,10 +6390,10 @@
         <v>5</v>
       </c>
       <c r="I172">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J172">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K172">
         <v>1</v>
@@ -6422,13 +6422,13 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I173">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J173">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K173">
         <v>2</v>
@@ -6457,13 +6457,13 @@
         <v>4</v>
       </c>
       <c r="H174">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I174">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J174">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K174">
         <v>1</v>
@@ -6492,13 +6492,13 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I175">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J175">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K175">
         <v>2</v>
@@ -6527,13 +6527,13 @@
         <v>2</v>
       </c>
       <c r="H176">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K176">
         <v>1</v>
@@ -6565,7 +6565,7 @@
         <v>1</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J177">
         <v>2</v>
@@ -6597,13 +6597,13 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J178">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K178">
         <v>2</v>
@@ -6635,10 +6635,10 @@
         <v>5</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J179">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K179">
         <v>1</v>
@@ -6667,13 +6667,13 @@
         <v>2</v>
       </c>
       <c r="H180">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I180">
         <v>4</v>
       </c>
       <c r="J180">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K180">
         <v>2</v>
@@ -6702,10 +6702,10 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J181">
         <v>2</v>
@@ -6740,10 +6740,10 @@
         <v>4</v>
       </c>
       <c r="I182">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J182">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K182">
         <v>2</v>
@@ -6772,10 +6772,10 @@
         <v>2</v>
       </c>
       <c r="H183">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J183">
         <v>4</v>
@@ -6807,13 +6807,13 @@
         <v>2</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I184">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J184">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K184">
         <v>1</v>
@@ -6842,13 +6842,13 @@
         <v>2</v>
       </c>
       <c r="H185">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I185">
         <v>4</v>
       </c>
       <c r="J185">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K185">
         <v>2</v>
@@ -6877,13 +6877,13 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I186">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J186">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K186">
         <v>1</v>
@@ -6915,10 +6915,10 @@
         <v>5</v>
       </c>
       <c r="I187">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J187">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K187">
         <v>1</v>
@@ -6947,13 +6947,13 @@
         <v>2</v>
       </c>
       <c r="H188">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I188">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J188">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K188">
         <v>1</v>
@@ -6982,13 +6982,13 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J189">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K189">
         <v>2</v>
@@ -7020,7 +7020,7 @@
         <v>4</v>
       </c>
       <c r="I190">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J190">
         <v>2</v>
@@ -7052,10 +7052,10 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I191">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J191">
         <v>1</v>
@@ -7090,7 +7090,7 @@
         <v>4</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J192">
         <v>2</v>
@@ -7122,10 +7122,10 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J193">
         <v>2</v>
@@ -7157,10 +7157,10 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I194">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J194">
         <v>4</v>
@@ -7192,7 +7192,7 @@
         <v>2</v>
       </c>
       <c r="H195">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I195">
         <v>4</v>
@@ -7227,10 +7227,10 @@
         <v>2</v>
       </c>
       <c r="H196">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J196">
         <v>2</v>
@@ -7262,13 +7262,13 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I197">
         <v>2</v>
       </c>
       <c r="J197">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K197">
         <v>1</v>
@@ -7297,13 +7297,13 @@
         <v>4</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I198">
         <v>4</v>
       </c>
       <c r="J198">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K198">
         <v>2</v>
@@ -7332,7 +7332,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I199">
         <v>4</v>
@@ -7367,7 +7367,7 @@
         <v>2</v>
       </c>
       <c r="H200">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I200">
         <v>5</v>
@@ -7402,10 +7402,10 @@
         <v>2</v>
       </c>
       <c r="H201">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J201">
         <v>2</v>
@@ -7440,10 +7440,10 @@
         <v>2</v>
       </c>
       <c r="I202">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J202">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K202">
         <v>1</v>
@@ -7472,13 +7472,13 @@
         <v>2</v>
       </c>
       <c r="H203">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I203">
         <v>1</v>
       </c>
       <c r="J203">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K203">
         <v>2</v>
@@ -7507,13 +7507,13 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I204">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J204">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K204">
         <v>1</v>
@@ -7542,13 +7542,13 @@
         <v>2</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J205">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K205">
         <v>2</v>
@@ -7577,10 +7577,10 @@
         <v>4</v>
       </c>
       <c r="H206">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I206">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J206">
         <v>2</v>
@@ -7612,13 +7612,13 @@
         <v>2</v>
       </c>
       <c r="H207">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I207">
         <v>1</v>
       </c>
       <c r="J207">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K207">
         <v>1</v>
@@ -7650,10 +7650,10 @@
         <v>4</v>
       </c>
       <c r="I208">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J208">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K208">
         <v>1</v>
@@ -7682,10 +7682,10 @@
         <v>2</v>
       </c>
       <c r="H209">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J209">
         <v>2</v>
@@ -7717,13 +7717,13 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I210">
         <v>1</v>
       </c>
       <c r="J210">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K210">
         <v>1</v>
@@ -7752,10 +7752,10 @@
         <v>2</v>
       </c>
       <c r="H211">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I211">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J211">
         <v>4</v>
@@ -7787,13 +7787,13 @@
         <v>2</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I212">
         <v>4</v>
       </c>
       <c r="J212">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K212">
         <v>2</v>
@@ -7825,7 +7825,7 @@
         <v>4</v>
       </c>
       <c r="I213">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J213">
         <v>2</v>
@@ -7857,13 +7857,13 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J214">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K214">
         <v>2</v>
@@ -7892,13 +7892,13 @@
         <v>2</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I215">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J215">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K215">
         <v>1</v>
@@ -7927,13 +7927,13 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I216">
         <v>5</v>
       </c>
       <c r="J216">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K216">
         <v>1</v>
@@ -7965,10 +7965,10 @@
         <v>5</v>
       </c>
       <c r="I217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J217">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K217">
         <v>2</v>
@@ -7997,13 +7997,13 @@
         <v>2</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I218">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J218">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K218">
         <v>1</v>
@@ -8035,7 +8035,7 @@
         <v>4</v>
       </c>
       <c r="I219">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J219">
         <v>4</v>
@@ -8067,13 +8067,13 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J220">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K220">
         <v>1</v>
@@ -8108,7 +8108,7 @@
         <v>4</v>
       </c>
       <c r="J221">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K221">
         <v>2</v>
@@ -8137,13 +8137,13 @@
         <v>2</v>
       </c>
       <c r="H222">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J222">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K222">
         <v>1</v>
@@ -8175,10 +8175,10 @@
         <v>4</v>
       </c>
       <c r="I223">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J223">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K223">
         <v>2</v>
@@ -8207,13 +8207,13 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J224">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K224">
         <v>1</v>
@@ -8242,13 +8242,13 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I225">
         <v>4</v>
       </c>
       <c r="J225">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K225">
         <v>2</v>
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I226">
         <v>4</v>
@@ -8312,13 +8312,13 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I227">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J227">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K227">
         <v>2</v>
@@ -8347,13 +8347,13 @@
         <v>2</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I228">
         <v>2</v>
       </c>
       <c r="J228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K228">
         <v>1</v>
@@ -8382,13 +8382,13 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I229">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J229">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K229">
         <v>2</v>
@@ -8417,10 +8417,10 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I230">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J230">
         <v>2</v>
@@ -8452,10 +8452,10 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I231">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J231">
         <v>4</v>
@@ -8487,13 +8487,13 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J232">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K232">
         <v>2</v>
@@ -8528,7 +8528,7 @@
         <v>5</v>
       </c>
       <c r="J233">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K233">
         <v>2</v>
@@ -8557,13 +8557,13 @@
         <v>2</v>
       </c>
       <c r="H234">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I234">
         <v>5</v>
       </c>
       <c r="J234">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K234">
         <v>2</v>
@@ -8595,10 +8595,10 @@
         <v>5</v>
       </c>
       <c r="I235">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J235">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K235">
         <v>2</v>
@@ -8627,13 +8627,13 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I236">
         <v>4</v>
       </c>
       <c r="J236">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K236">
         <v>2</v>
@@ -8668,7 +8668,7 @@
         <v>4</v>
       </c>
       <c r="J237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K237">
         <v>2</v>
@@ -8697,13 +8697,13 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K238">
         <v>1</v>
@@ -8735,7 +8735,7 @@
         <v>4</v>
       </c>
       <c r="I239">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J239">
         <v>2</v>
@@ -8770,10 +8770,10 @@
         <v>1</v>
       </c>
       <c r="I240">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J240">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K240">
         <v>2</v>
@@ -8805,10 +8805,10 @@
         <v>4</v>
       </c>
       <c r="I241">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K241">
         <v>1</v>
@@ -8837,10 +8837,10 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I242">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J242">
         <v>2</v>
@@ -8872,13 +8872,13 @@
         <v>2</v>
       </c>
       <c r="H243">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I243">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J243">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K243">
         <v>1</v>
@@ -8907,7 +8907,7 @@
         <v>2</v>
       </c>
       <c r="H244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I244">
         <v>5</v>
@@ -8945,10 +8945,10 @@
         <v>4</v>
       </c>
       <c r="I245">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J245">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K245">
         <v>2</v>
@@ -8977,13 +8977,13 @@
         <v>2</v>
       </c>
       <c r="H246">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I246">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J246">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K246">
         <v>1</v>
@@ -9015,10 +9015,10 @@
         <v>4</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J247">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K247">
         <v>1</v>
@@ -9047,13 +9047,13 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J248">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K248">
         <v>2</v>
@@ -9082,13 +9082,13 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I249">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J249">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K249">
         <v>1</v>
@@ -9117,13 +9117,13 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I250">
         <v>5</v>
       </c>
       <c r="J250">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K250">
         <v>2</v>
@@ -9155,10 +9155,10 @@
         <v>2</v>
       </c>
       <c r="I251">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J251">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K251">
         <v>2</v>
@@ -9187,7 +9187,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I252">
         <v>5</v>
@@ -9222,13 +9222,13 @@
         <v>2</v>
       </c>
       <c r="H253">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I253">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K253">
         <v>1</v>
@@ -9260,10 +9260,10 @@
         <v>4</v>
       </c>
       <c r="I254">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J254">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K254">
         <v>1</v>
@@ -9295,7 +9295,7 @@
         <v>4</v>
       </c>
       <c r="I255">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J255">
         <v>4</v>
@@ -9327,13 +9327,13 @@
         <v>2</v>
       </c>
       <c r="H256">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I256">
         <v>1</v>
       </c>
       <c r="J256">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K256">
         <v>2</v>
@@ -9362,10 +9362,10 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I257">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J257">
         <v>4</v>
@@ -9403,7 +9403,7 @@
         <v>4</v>
       </c>
       <c r="J258">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K258">
         <v>2</v>
@@ -9435,10 +9435,10 @@
         <v>4</v>
       </c>
       <c r="I259">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J259">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K259">
         <v>2</v>
@@ -9467,13 +9467,13 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I260">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J260">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K260">
         <v>2</v>
@@ -9505,10 +9505,10 @@
         <v>2</v>
       </c>
       <c r="I261">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J261">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K261">
         <v>2</v>
@@ -9537,7 +9537,7 @@
         <v>2</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I262">
         <v>4</v>
@@ -9572,13 +9572,13 @@
         <v>2</v>
       </c>
       <c r="H263">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I263">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J263">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K263">
         <v>1</v>
@@ -9610,10 +9610,10 @@
         <v>4</v>
       </c>
       <c r="I264">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J264">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K264">
         <v>2</v>
@@ -9642,7 +9642,7 @@
         <v>2</v>
       </c>
       <c r="H265">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I265">
         <v>5</v>
@@ -9715,7 +9715,7 @@
         <v>2</v>
       </c>
       <c r="I267">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J267">
         <v>2</v>
@@ -9747,13 +9747,13 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I268">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J268">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K268">
         <v>2</v>
@@ -9782,13 +9782,13 @@
         <v>2</v>
       </c>
       <c r="H269">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I269">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J269">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K269">
         <v>1</v>
@@ -9817,10 +9817,10 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I270">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J270">
         <v>2</v>
@@ -9852,13 +9852,13 @@
         <v>2</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J271">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K271">
         <v>2</v>
@@ -9887,10 +9887,10 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I272">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J272">
         <v>2</v>
@@ -9925,10 +9925,10 @@
         <v>4</v>
       </c>
       <c r="I273">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J273">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K273">
         <v>1</v>
@@ -9960,7 +9960,7 @@
         <v>4</v>
       </c>
       <c r="I274">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J274">
         <v>2</v>
@@ -9992,10 +9992,10 @@
         <v>2</v>
       </c>
       <c r="H275">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I275">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J275">
         <v>2</v>
@@ -10027,10 +10027,10 @@
         <v>2</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I276">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J276">
         <v>2</v>
@@ -10062,13 +10062,13 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I277">
         <v>5</v>
       </c>
       <c r="J277">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K277">
         <v>2</v>
@@ -10100,10 +10100,10 @@
         <v>4</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J278">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K278">
         <v>1</v>
@@ -10167,13 +10167,13 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I280">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K280">
         <v>1</v>
@@ -10202,13 +10202,13 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J281">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K281">
         <v>1</v>
@@ -10237,13 +10237,13 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I282">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J282">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K282">
         <v>2</v>
@@ -10272,13 +10272,13 @@
         <v>2</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I283">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K283">
         <v>2</v>
@@ -10307,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I284">
         <v>5</v>
@@ -10342,13 +10342,13 @@
         <v>2</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I285">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J285">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K285">
         <v>2</v>
@@ -10377,10 +10377,10 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I286">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J286">
         <v>4</v>
@@ -10415,7 +10415,7 @@
         <v>4</v>
       </c>
       <c r="I287">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J287">
         <v>2</v>
@@ -10450,10 +10450,10 @@
         <v>2</v>
       </c>
       <c r="I288">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J288">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K288">
         <v>2</v>
@@ -10482,13 +10482,13 @@
         <v>1</v>
       </c>
       <c r="H289">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I289">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J289">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K289">
         <v>1</v>
@@ -10517,13 +10517,13 @@
         <v>2</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I290">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J290">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K290">
         <v>2</v>
@@ -10552,10 +10552,10 @@
         <v>2</v>
       </c>
       <c r="H291">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I291">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J291">
         <v>2</v>
@@ -10590,10 +10590,10 @@
         <v>5</v>
       </c>
       <c r="I292">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J292">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K292">
         <v>2</v>
@@ -10622,13 +10622,13 @@
         <v>2</v>
       </c>
       <c r="H293">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J293">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K293">
         <v>1</v>
@@ -10657,13 +10657,13 @@
         <v>2</v>
       </c>
       <c r="H294">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I294">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J294">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K294">
         <v>2</v>
@@ -10695,7 +10695,7 @@
         <v>4</v>
       </c>
       <c r="I295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J295">
         <v>5</v>
@@ -10727,10 +10727,10 @@
         <v>1</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I296">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J296">
         <v>2</v>
@@ -10762,13 +10762,13 @@
         <v>1</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297">
         <v>4</v>
       </c>
       <c r="J297">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K297">
         <v>2</v>
@@ -10797,13 +10797,13 @@
         <v>2</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J298">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K298">
         <v>2</v>
@@ -10835,10 +10835,10 @@
         <v>5</v>
       </c>
       <c r="I299">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K299">
         <v>2</v>
@@ -10867,10 +10867,10 @@
         <v>1</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J300">
         <v>2</v>
@@ -10902,7 +10902,7 @@
         <v>2</v>
       </c>
       <c r="H301">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I301">
         <v>4</v>
@@ -10937,13 +10937,13 @@
         <v>1</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J302">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K302">
         <v>2</v>
@@ -10972,13 +10972,13 @@
         <v>2</v>
       </c>
       <c r="H303">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I303">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J303">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K303">
         <v>1</v>
@@ -11010,10 +11010,10 @@
         <v>5</v>
       </c>
       <c r="I304">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J304">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K304">
         <v>1</v>
@@ -11042,13 +11042,13 @@
         <v>1</v>
       </c>
       <c r="H305">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I305">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J305">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K305">
         <v>1</v>
@@ -11077,13 +11077,13 @@
         <v>1</v>
       </c>
       <c r="H306">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I306">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J306">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K306">
         <v>2</v>
@@ -11112,13 +11112,13 @@
         <v>1</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I307">
         <v>4</v>
       </c>
       <c r="J307">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K307">
         <v>1</v>
@@ -11147,13 +11147,13 @@
         <v>2</v>
       </c>
       <c r="H308">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I308">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J308">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K308">
         <v>1</v>
@@ -11185,10 +11185,10 @@
         <v>4</v>
       </c>
       <c r="I309">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K309">
         <v>1</v>
@@ -11217,13 +11217,13 @@
         <v>2</v>
       </c>
       <c r="H310">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I310">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J310">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K310">
         <v>2</v>
@@ -11255,7 +11255,7 @@
         <v>4</v>
       </c>
       <c r="I311">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J311">
         <v>2</v>
@@ -11287,10 +11287,10 @@
         <v>2</v>
       </c>
       <c r="H312">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I312">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J312">
         <v>5</v>
@@ -11322,13 +11322,13 @@
         <v>2</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I313">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J313">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K313">
         <v>1</v>
@@ -11395,10 +11395,10 @@
         <v>2</v>
       </c>
       <c r="I315">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J315">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K315">
         <v>1</v>
@@ -11427,10 +11427,10 @@
         <v>2</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I316">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J316">
         <v>2</v>
@@ -11462,13 +11462,13 @@
         <v>2</v>
       </c>
       <c r="H317">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I317">
         <v>4</v>
       </c>
       <c r="J317">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K317">
         <v>1</v>
@@ -11567,13 +11567,13 @@
         <v>2</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I320">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J320">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K320">
         <v>2</v>
@@ -11602,13 +11602,13 @@
         <v>1</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I321">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J321">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K321">
         <v>1</v>
@@ -11637,13 +11637,13 @@
         <v>1</v>
       </c>
       <c r="H322">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I322">
         <v>4</v>
       </c>
       <c r="J322">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K322">
         <v>1</v>
@@ -11672,13 +11672,13 @@
         <v>1</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I323">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J323">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K323">
         <v>2</v>
@@ -11707,13 +11707,13 @@
         <v>1</v>
       </c>
       <c r="H324">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I324">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J324">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K324">
         <v>1</v>
@@ -11745,10 +11745,10 @@
         <v>4</v>
       </c>
       <c r="I325">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J325">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K325">
         <v>1</v>
@@ -11780,7 +11780,7 @@
         <v>1</v>
       </c>
       <c r="I326">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J326">
         <v>2</v>
@@ -11812,13 +11812,13 @@
         <v>2</v>
       </c>
       <c r="H327">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I327">
         <v>4</v>
       </c>
       <c r="J327">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K327">
         <v>2</v>
@@ -11847,13 +11847,13 @@
         <v>1</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I328">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J328">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K328">
         <v>2</v>
@@ -11882,7 +11882,7 @@
         <v>2</v>
       </c>
       <c r="H329">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I329">
         <v>4</v>
@@ -11917,13 +11917,13 @@
         <v>1</v>
       </c>
       <c r="H330">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I330">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J330">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K330">
         <v>2</v>
@@ -11955,10 +11955,10 @@
         <v>5</v>
       </c>
       <c r="I331">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J331">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K331">
         <v>1</v>
@@ -11987,13 +11987,13 @@
         <v>1</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I332">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J332">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K332">
         <v>1</v>
@@ -12057,13 +12057,13 @@
         <v>1</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I334">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J334">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K334">
         <v>2</v>
@@ -12095,10 +12095,10 @@
         <v>2</v>
       </c>
       <c r="I335">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J335">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K335">
         <v>2</v>
@@ -12130,10 +12130,10 @@
         <v>4</v>
       </c>
       <c r="I336">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J336">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K336">
         <v>2</v>
@@ -12197,10 +12197,10 @@
         <v>2</v>
       </c>
       <c r="H338">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I338">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J338">
         <v>4</v>
@@ -12238,7 +12238,7 @@
         <v>5</v>
       </c>
       <c r="J339">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K339">
         <v>1</v>
@@ -12267,13 +12267,13 @@
         <v>2</v>
       </c>
       <c r="H340">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I340">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J340">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K340">
         <v>2</v>
@@ -12302,13 +12302,13 @@
         <v>1</v>
       </c>
       <c r="H341">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I341">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J341">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K341">
         <v>1</v>
@@ -12337,13 +12337,13 @@
         <v>1</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I342">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J342">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K342">
         <v>1</v>
@@ -12378,7 +12378,7 @@
         <v>5</v>
       </c>
       <c r="J343">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K343">
         <v>2</v>
@@ -12407,13 +12407,13 @@
         <v>2</v>
       </c>
       <c r="H344">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I344">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J344">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K344">
         <v>1</v>
@@ -12442,10 +12442,10 @@
         <v>2</v>
       </c>
       <c r="H345">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I345">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J345">
         <v>5</v>
@@ -12477,13 +12477,13 @@
         <v>2</v>
       </c>
       <c r="H346">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I346">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J346">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K346">
         <v>2</v>
@@ -12512,13 +12512,13 @@
         <v>1</v>
       </c>
       <c r="H347">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I347">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J347">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K347">
         <v>2</v>
@@ -12547,13 +12547,13 @@
         <v>1</v>
       </c>
       <c r="H348">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I348">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J348">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K348">
         <v>1</v>
@@ -12582,13 +12582,13 @@
         <v>1</v>
       </c>
       <c r="H349">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I349">
         <v>4</v>
       </c>
       <c r="J349">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K349">
         <v>2</v>
@@ -12623,7 +12623,7 @@
         <v>2</v>
       </c>
       <c r="J350">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K350">
         <v>2</v>
@@ -12652,13 +12652,13 @@
         <v>2</v>
       </c>
       <c r="H351">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I351">
         <v>4</v>
       </c>
       <c r="J351">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K351">
         <v>2</v>
@@ -12687,13 +12687,13 @@
         <v>2</v>
       </c>
       <c r="H352">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I352">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J352">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K352">
         <v>2</v>
@@ -12722,7 +12722,7 @@
         <v>1</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I353">
         <v>4</v>
@@ -12757,13 +12757,13 @@
         <v>1</v>
       </c>
       <c r="H354">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I354">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J354">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K354">
         <v>1</v>
@@ -12792,13 +12792,13 @@
         <v>2</v>
       </c>
       <c r="H355">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I355">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J355">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K355">
         <v>2</v>
@@ -12827,10 +12827,10 @@
         <v>2</v>
       </c>
       <c r="H356">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I356">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J356">
         <v>2</v>
@@ -12862,7 +12862,7 @@
         <v>1</v>
       </c>
       <c r="H357">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I357">
         <v>1</v>
@@ -12897,13 +12897,13 @@
         <v>1</v>
       </c>
       <c r="H358">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I358">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J358">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K358">
         <v>1</v>
@@ -12932,7 +12932,7 @@
         <v>2</v>
       </c>
       <c r="H359">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I359">
         <v>5</v>
@@ -12967,13 +12967,13 @@
         <v>1</v>
       </c>
       <c r="H360">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I360">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J360">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K360">
         <v>2</v>
@@ -13002,13 +13002,13 @@
         <v>1</v>
       </c>
       <c r="H361">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I361">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J361">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K361">
         <v>2</v>
@@ -13040,10 +13040,10 @@
         <v>1</v>
       </c>
       <c r="I362">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J362">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K362">
         <v>1</v>
@@ -13072,7 +13072,7 @@
         <v>2</v>
       </c>
       <c r="H363">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I363">
         <v>2</v>
@@ -13107,13 +13107,13 @@
         <v>1</v>
       </c>
       <c r="H364">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I364">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J364">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K364">
         <v>1</v>
@@ -13142,13 +13142,13 @@
         <v>2</v>
       </c>
       <c r="H365">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I365">
         <v>5</v>
       </c>
       <c r="J365">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K365">
         <v>2</v>
@@ -13183,7 +13183,7 @@
         <v>5</v>
       </c>
       <c r="J366">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K366">
         <v>2</v>
@@ -13215,10 +13215,10 @@
         <v>5</v>
       </c>
       <c r="I367">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J367">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K367">
         <v>1</v>
@@ -13247,10 +13247,10 @@
         <v>1</v>
       </c>
       <c r="H368">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I368">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J368">
         <v>4</v>
@@ -13282,10 +13282,10 @@
         <v>2</v>
       </c>
       <c r="H369">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I369">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J369">
         <v>2</v>
@@ -13317,7 +13317,7 @@
         <v>1</v>
       </c>
       <c r="H370">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I370">
         <v>1</v>
@@ -13352,13 +13352,13 @@
         <v>2</v>
       </c>
       <c r="H371">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I371">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J371">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K371">
         <v>1</v>
@@ -13387,10 +13387,10 @@
         <v>2</v>
       </c>
       <c r="H372">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I372">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J372">
         <v>4</v>
@@ -13422,13 +13422,13 @@
         <v>2</v>
       </c>
       <c r="H373">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I373">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J373">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K373">
         <v>1</v>
@@ -13457,13 +13457,13 @@
         <v>2</v>
       </c>
       <c r="H374">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I374">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J374">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K374">
         <v>2</v>
@@ -13495,10 +13495,10 @@
         <v>4</v>
       </c>
       <c r="I375">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J375">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K375">
         <v>2</v>
@@ -13527,7 +13527,7 @@
         <v>2</v>
       </c>
       <c r="H376">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I376">
         <v>4</v>
@@ -13562,13 +13562,13 @@
         <v>2</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I377">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J377">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K377">
         <v>2</v>
@@ -13597,13 +13597,13 @@
         <v>1</v>
       </c>
       <c r="H378">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I378">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J378">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K378">
         <v>1</v>
@@ -13632,10 +13632,10 @@
         <v>1</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I379">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J379">
         <v>4</v>
@@ -13667,13 +13667,13 @@
         <v>2</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J380">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K380">
         <v>1</v>
@@ -13702,13 +13702,13 @@
         <v>2</v>
       </c>
       <c r="H381">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I381">
         <v>5</v>
       </c>
       <c r="J381">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K381">
         <v>2</v>
@@ -13740,10 +13740,10 @@
         <v>5</v>
       </c>
       <c r="I382">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J382">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K382">
         <v>2</v>
@@ -13772,13 +13772,13 @@
         <v>2</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I383">
         <v>4</v>
       </c>
       <c r="J383">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K383">
         <v>1</v>
@@ -13807,13 +13807,13 @@
         <v>2</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I384">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J384">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K384">
         <v>2</v>
@@ -13848,7 +13848,7 @@
         <v>4</v>
       </c>
       <c r="J385">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K385">
         <v>1</v>
@@ -13877,10 +13877,10 @@
         <v>2</v>
       </c>
       <c r="H386">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I386">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J386">
         <v>2</v>
@@ -13912,13 +13912,13 @@
         <v>1</v>
       </c>
       <c r="H387">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I387">
         <v>4</v>
       </c>
       <c r="J387">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K387">
         <v>1</v>
@@ -13950,7 +13950,7 @@
         <v>5</v>
       </c>
       <c r="I388">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J388">
         <v>2</v>
@@ -13982,13 +13982,13 @@
         <v>1</v>
       </c>
       <c r="H389">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I389">
         <v>2</v>
       </c>
       <c r="J389">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K389">
         <v>2</v>
@@ -14017,10 +14017,10 @@
         <v>2</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I390">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J390">
         <v>2</v>
@@ -14052,13 +14052,13 @@
         <v>2</v>
       </c>
       <c r="H391">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I391">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J391">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K391">
         <v>1</v>
@@ -14087,10 +14087,10 @@
         <v>1</v>
       </c>
       <c r="H392">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I392">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J392">
         <v>2</v>
@@ -14125,10 +14125,10 @@
         <v>4</v>
       </c>
       <c r="I393">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J393">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K393">
         <v>1</v>
@@ -14160,10 +14160,10 @@
         <v>4</v>
       </c>
       <c r="I394">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J394">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K394">
         <v>2</v>
@@ -14195,10 +14195,10 @@
         <v>4</v>
       </c>
       <c r="I395">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J395">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K395">
         <v>2</v>
@@ -14230,10 +14230,10 @@
         <v>4</v>
       </c>
       <c r="I396">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J396">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K396">
         <v>2</v>
@@ -14265,10 +14265,10 @@
         <v>2</v>
       </c>
       <c r="I397">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J397">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K397">
         <v>2</v>
@@ -14297,13 +14297,13 @@
         <v>2</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I398">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J398">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K398">
         <v>1</v>
@@ -14332,10 +14332,10 @@
         <v>1</v>
       </c>
       <c r="H399">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I399">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J399">
         <v>2</v>
@@ -14370,10 +14370,10 @@
         <v>4</v>
       </c>
       <c r="I400">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J400">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K400">
         <v>1</v>
@@ -14402,13 +14402,13 @@
         <v>1</v>
       </c>
       <c r="H401">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I401">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J401">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K401">
         <v>2</v>
@@ -14437,13 +14437,13 @@
         <v>1</v>
       </c>
       <c r="H402">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I402">
         <v>4</v>
       </c>
       <c r="J402">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K402">
         <v>2</v>
@@ -14472,13 +14472,13 @@
         <v>1</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I403">
         <v>4</v>
       </c>
       <c r="J403">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K403">
         <v>1</v>
@@ -14507,10 +14507,10 @@
         <v>1</v>
       </c>
       <c r="H404">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I404">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J404">
         <v>5</v>
@@ -14542,13 +14542,13 @@
         <v>1</v>
       </c>
       <c r="H405">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I405">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J405">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K405">
         <v>2</v>
@@ -14577,13 +14577,13 @@
         <v>2</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I406">
         <v>5</v>
       </c>
       <c r="J406">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K406">
         <v>2</v>
@@ -14612,13 +14612,13 @@
         <v>1</v>
       </c>
       <c r="H407">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I407">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J407">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K407">
         <v>2</v>
@@ -14647,13 +14647,13 @@
         <v>2</v>
       </c>
       <c r="H408">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I408">
         <v>1</v>
       </c>
       <c r="J408">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K408">
         <v>2</v>
@@ -14682,10 +14682,10 @@
         <v>1</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I409">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J409">
         <v>2</v>
@@ -14723,7 +14723,7 @@
         <v>5</v>
       </c>
       <c r="J410">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K410">
         <v>1</v>
@@ -14752,13 +14752,13 @@
         <v>1</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I411">
         <v>4</v>
       </c>
       <c r="J411">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K411">
         <v>1</v>
@@ -14787,13 +14787,13 @@
         <v>1</v>
       </c>
       <c r="H412">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I412">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J412">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K412">
         <v>1</v>
@@ -14822,13 +14822,13 @@
         <v>1</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I413">
         <v>4</v>
       </c>
       <c r="J413">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K413">
         <v>2</v>
@@ -14857,13 +14857,13 @@
         <v>1</v>
       </c>
       <c r="H414">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I414">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J414">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K414">
         <v>2</v>
@@ -14892,13 +14892,13 @@
         <v>2</v>
       </c>
       <c r="H415">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I415">
         <v>5</v>
       </c>
       <c r="J415">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K415">
         <v>2</v>
@@ -14927,7 +14927,7 @@
         <v>4</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I416">
         <v>4</v>
@@ -14965,10 +14965,10 @@
         <v>4</v>
       </c>
       <c r="I417">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J417">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K417">
         <v>1</v>
@@ -15003,7 +15003,7 @@
         <v>5</v>
       </c>
       <c r="J418">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K418">
         <v>2</v>
@@ -15032,13 +15032,13 @@
         <v>3</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I419">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J419">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K419">
         <v>2</v>
@@ -15067,13 +15067,13 @@
         <v>2</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I420">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J420">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K420">
         <v>1</v>
@@ -15140,7 +15140,7 @@
         <v>4</v>
       </c>
       <c r="I422">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J422">
         <v>1</v>
@@ -15172,13 +15172,13 @@
         <v>2</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I423">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J423">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K423">
         <v>2</v>
@@ -15207,13 +15207,13 @@
         <v>2</v>
       </c>
       <c r="H424">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I424">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J424">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K424">
         <v>1</v>
@@ -15242,13 +15242,13 @@
         <v>2</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I425">
         <v>4</v>
       </c>
       <c r="J425">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K425">
         <v>1</v>
@@ -15277,13 +15277,13 @@
         <v>2</v>
       </c>
       <c r="H426">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I426">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J426">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K426">
         <v>1</v>
@@ -15312,13 +15312,13 @@
         <v>1</v>
       </c>
       <c r="H427">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I427">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J427">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K427">
         <v>2</v>
@@ -15347,10 +15347,10 @@
         <v>2</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I428">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J428">
         <v>1</v>
@@ -15382,7 +15382,7 @@
         <v>2</v>
       </c>
       <c r="H429">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I429">
         <v>4</v>
@@ -15417,10 +15417,10 @@
         <v>1</v>
       </c>
       <c r="H430">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I430">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J430">
         <v>4</v>
@@ -15452,13 +15452,13 @@
         <v>2</v>
       </c>
       <c r="H431">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I431">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J431">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K431">
         <v>1</v>
@@ -15487,13 +15487,13 @@
         <v>1</v>
       </c>
       <c r="H432">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I432">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J432">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K432">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         <v>4</v>
       </c>
       <c r="I433">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J433">
         <v>4</v>
@@ -15557,7 +15557,7 @@
         <v>1</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I434">
         <v>4</v>
@@ -15595,10 +15595,10 @@
         <v>4</v>
       </c>
       <c r="I435">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J435">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K435">
         <v>1</v>
@@ -15627,10 +15627,10 @@
         <v>2</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I436">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J436">
         <v>2</v>
@@ -15665,10 +15665,10 @@
         <v>5</v>
       </c>
       <c r="I437">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J437">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K437">
         <v>2</v>
@@ -15703,7 +15703,7 @@
         <v>5</v>
       </c>
       <c r="J438">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K438">
         <v>2</v>
@@ -15732,10 +15732,10 @@
         <v>2</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I439">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J439">
         <v>5</v>
@@ -15767,13 +15767,13 @@
         <v>1</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I440">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J440">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K440">
         <v>2</v>
@@ -15802,13 +15802,13 @@
         <v>1</v>
       </c>
       <c r="H441">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I441">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J441">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K441">
         <v>1</v>
@@ -15837,13 +15837,13 @@
         <v>1</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I442">
         <v>5</v>
       </c>
       <c r="J442">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K442">
         <v>2</v>
@@ -15875,10 +15875,10 @@
         <v>4</v>
       </c>
       <c r="I443">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J443">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K443">
         <v>1</v>
@@ -15907,13 +15907,13 @@
         <v>2</v>
       </c>
       <c r="H444">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I444">
         <v>5</v>
       </c>
       <c r="J444">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K444">
         <v>2</v>
@@ -15942,13 +15942,13 @@
         <v>1</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I445">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J445">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K445">
         <v>1</v>
@@ -15977,13 +15977,13 @@
         <v>2</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I446">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J446">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K446">
         <v>2</v>
@@ -16015,10 +16015,10 @@
         <v>4</v>
       </c>
       <c r="I447">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J447">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K447">
         <v>1</v>
@@ -16047,13 +16047,13 @@
         <v>1</v>
       </c>
       <c r="H448">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I448">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J448">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K448">
         <v>1</v>
@@ -16082,13 +16082,13 @@
         <v>2</v>
       </c>
       <c r="H449">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I449">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J449">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K449">
         <v>2</v>
@@ -16117,7 +16117,7 @@
         <v>1</v>
       </c>
       <c r="H450">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I450">
         <v>5</v>
@@ -16152,13 +16152,13 @@
         <v>2</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I451">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J451">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K451">
         <v>1</v>
@@ -16187,13 +16187,13 @@
         <v>2</v>
       </c>
       <c r="H452">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I452">
         <v>4</v>
       </c>
       <c r="J452">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K452">
         <v>1</v>
@@ -16222,13 +16222,13 @@
         <v>2</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I453">
         <v>4</v>
       </c>
       <c r="J453">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K453">
         <v>1</v>
@@ -16257,10 +16257,10 @@
         <v>2</v>
       </c>
       <c r="H454">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I454">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J454">
         <v>4</v>
@@ -16292,10 +16292,10 @@
         <v>2</v>
       </c>
       <c r="H455">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I455">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J455">
         <v>1</v>
@@ -16327,7 +16327,7 @@
         <v>1</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I456">
         <v>4</v>
@@ -16362,13 +16362,13 @@
         <v>1</v>
       </c>
       <c r="H457">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I457">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J457">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K457">
         <v>2</v>
@@ -16400,7 +16400,7 @@
         <v>2</v>
       </c>
       <c r="I458">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J458">
         <v>4</v>
@@ -16432,7 +16432,7 @@
         <v>1</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I459">
         <v>4</v>
@@ -16467,13 +16467,13 @@
         <v>2</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I460">
         <v>4</v>
       </c>
       <c r="J460">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K460">
         <v>1</v>
@@ -16502,13 +16502,13 @@
         <v>1</v>
       </c>
       <c r="H461">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I461">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J461">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K461">
         <v>1</v>
@@ -16537,13 +16537,13 @@
         <v>1</v>
       </c>
       <c r="H462">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I462">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J462">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K462">
         <v>2</v>
@@ -16575,10 +16575,10 @@
         <v>4</v>
       </c>
       <c r="I463">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J463">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K463">
         <v>1</v>
@@ -16610,10 +16610,10 @@
         <v>4</v>
       </c>
       <c r="I464">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J464">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K464">
         <v>1</v>
@@ -16645,10 +16645,10 @@
         <v>4</v>
       </c>
       <c r="I465">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J465">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K465">
         <v>2</v>
@@ -16677,7 +16677,7 @@
         <v>2</v>
       </c>
       <c r="H466">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I466">
         <v>5</v>
@@ -16712,13 +16712,13 @@
         <v>1</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I467">
         <v>4</v>
       </c>
       <c r="J467">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K467">
         <v>1</v>
@@ -16747,13 +16747,13 @@
         <v>1</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I468">
         <v>4</v>
       </c>
       <c r="J468">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K468">
         <v>2</v>
@@ -16782,13 +16782,13 @@
         <v>1</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I469">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J469">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K469">
         <v>2</v>
@@ -16820,10 +16820,10 @@
         <v>4</v>
       </c>
       <c r="I470">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J470">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K470">
         <v>1</v>
@@ -16855,10 +16855,10 @@
         <v>4</v>
       </c>
       <c r="I471">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J471">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K471">
         <v>1</v>
@@ -16887,10 +16887,10 @@
         <v>1</v>
       </c>
       <c r="H472">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I472">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J472">
         <v>2</v>
@@ -16922,13 +16922,13 @@
         <v>1</v>
       </c>
       <c r="H473">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I473">
         <v>4</v>
       </c>
       <c r="J473">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K473">
         <v>1</v>
@@ -16960,10 +16960,10 @@
         <v>5</v>
       </c>
       <c r="I474">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J474">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K474">
         <v>2</v>
@@ -16992,13 +16992,13 @@
         <v>2</v>
       </c>
       <c r="H475">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I475">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J475">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K475">
         <v>2</v>
@@ -17027,13 +17027,13 @@
         <v>1</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I476">
         <v>5</v>
       </c>
       <c r="J476">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K476">
         <v>2</v>
@@ -17065,7 +17065,7 @@
         <v>5</v>
       </c>
       <c r="I477">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J477">
         <v>4</v>
@@ -17097,7 +17097,7 @@
         <v>1</v>
       </c>
       <c r="H478">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I478">
         <v>5</v>
@@ -17132,13 +17132,13 @@
         <v>2</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I479">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J479">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K479">
         <v>1</v>
@@ -17167,13 +17167,13 @@
         <v>2</v>
       </c>
       <c r="H480">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I480">
         <v>4</v>
       </c>
       <c r="J480">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K480">
         <v>2</v>
@@ -17202,10 +17202,10 @@
         <v>1</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I481">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J481">
         <v>2</v>
@@ -17237,13 +17237,13 @@
         <v>1</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I482">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J482">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K482">
         <v>1</v>
@@ -17275,10 +17275,10 @@
         <v>5</v>
       </c>
       <c r="I483">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J483">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K483">
         <v>1</v>
@@ -17307,13 +17307,13 @@
         <v>2</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I484">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J484">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K484">
         <v>2</v>
@@ -17342,13 +17342,13 @@
         <v>2</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I485">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J485">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K485">
         <v>1</v>
@@ -17377,10 +17377,10 @@
         <v>1</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I486">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J486">
         <v>5</v>
@@ -17415,10 +17415,10 @@
         <v>4</v>
       </c>
       <c r="I487">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J487">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K487">
         <v>1</v>
